--- a/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
+++ b/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Desktop\FFR Data\Added Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\FFR Automation by RoboticEnterpriseFramework\FFR Data\Added Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1508">
   <si>
     <t>Actual Part</t>
   </si>
@@ -4498,6 +4498,54 @@
   </si>
   <si>
     <t>COMPRESSOR (OXA-C122E030) SA122GDR/TDN ODU</t>
+  </si>
+  <si>
+    <t>V SWING MOTOR HOLDER SR123/183ASR IDU</t>
+  </si>
+  <si>
+    <t>BUSH SWING MOTOR SR123/183ASR IDU</t>
+  </si>
+  <si>
+    <t>HORIZONTAL LOUVER MOTOR CONNECTOR COMMON</t>
+  </si>
+  <si>
+    <t>CRANK H.SWING MOTOR IDU SR183SLK1/GDR1</t>
+  </si>
+  <si>
+    <t>DISPLAY PCB IR123/183GRD/IVR IDU</t>
+  </si>
+  <si>
+    <t>TEMPERATURE SENSOR IR123/183GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>HANDLE IR123/183GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>VALVE COVER IR123/183GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>BLOWERÂ  SR123ASR IDU</t>
+  </si>
+  <si>
+    <t>FAN MOTOR COVER IR123CRL/IRS/ONX IDU</t>
+  </si>
+  <si>
+    <t>COMPRESSOR 1.5T R32INV GMCC KSN133D42UFZ</t>
+  </si>
+  <si>
+    <t>STEP MOTOR S185SMH-W IDU</t>
+  </si>
+  <si>
+    <t>SWING LOUVER SA122/23TDN IDU</t>
+  </si>
+  <si>
+    <t>Valve Cover</t>
+  </si>
+  <si>
+    <t>Motor Cover</t>
+  </si>
+  <si>
+    <t>Step Motor Connector</t>
   </si>
 </sst>
 </file>
@@ -4901,16 +4949,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1453"/>
+  <dimension ref="A1:C1482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1442" workbookViewId="0">
-      <selection activeCell="C1452" sqref="C1452"/>
+    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
+      <selection activeCell="B1457" sqref="B1457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20877,28 +20925,211 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1452" s="7">
-        <v>11071611</v>
+        <v>11063116</v>
       </c>
       <c r="B1452" s="9" t="s">
         <v>516</v>
       </c>
       <c r="C1452" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1453" s="7">
-        <v>11063116</v>
-      </c>
-      <c r="B1453" s="9" t="s">
+      <c r="A1453" s="11">
+        <v>11072699</v>
+      </c>
+      <c r="B1453" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1453" s="11" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1454" s="11">
+        <v>11072698</v>
+      </c>
+      <c r="B1454" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1454" s="11" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1455" s="11">
+        <v>11069702</v>
+      </c>
+      <c r="B1455" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1455" s="11" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1456" s="11">
+        <v>11068906</v>
+      </c>
+      <c r="B1456" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1456" s="11" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1457" s="11">
+        <v>11072483</v>
+      </c>
+      <c r="B1457" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1457" s="11" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1458" s="11">
+        <v>11072522</v>
+      </c>
+      <c r="B1458" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C1458" s="11" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1459" s="11">
+        <v>11072505</v>
+      </c>
+      <c r="B1459" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1459" s="11" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1460" s="11">
+        <v>11072506</v>
+      </c>
+      <c r="B1460" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1460" s="11" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1461" s="11">
+        <v>11072704</v>
+      </c>
+      <c r="B1461" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1461" s="11" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1462" s="11">
+        <v>11062778</v>
+      </c>
+      <c r="B1462" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1462" s="11" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1463" s="11">
+        <v>11075733</v>
+      </c>
+      <c r="B1463" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C1453" s="7" t="s">
-        <v>1491</v>
-      </c>
+      <c r="C1463" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1464" s="11">
+        <v>11056393</v>
+      </c>
+      <c r="B1464" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1464" s="11" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1465" s="11">
+        <v>11062858</v>
+      </c>
+      <c r="B1465" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1465" s="11" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1466"/>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1467"/>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1468"/>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1469"/>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1470"/>
+    </row>
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1471"/>
+    </row>
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1472"/>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1473"/>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1474"/>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1475"/>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1476"/>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1477"/>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1478"/>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1479"/>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1480"/>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1481"/>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1482"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1441"/>
+  <autoFilter ref="A1:C1465"/>
   <sortState ref="A2:C1071">
     <sortCondition ref="C2"/>
   </sortState>

--- a/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
+++ b/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1474</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1534">
   <si>
     <t>Actual Part</t>
   </si>
@@ -4546,6 +4546,84 @@
   </si>
   <si>
     <t>Step Motor Connector</t>
+  </si>
+  <si>
+    <t>COIL TEM SENSOR SR123/183ASR IDU</t>
+  </si>
+  <si>
+    <t>CONNECTING PIPE 3/8 4M W/INSUL/FLR NUT</t>
+  </si>
+  <si>
+    <t>CONNECTING PIPE 1/4 4M W/INSUL/FLR NUT</t>
+  </si>
+  <si>
+    <t>CONNECTING PIPE 1/2 4M W/INSUL/FLR NUT</t>
+  </si>
+  <si>
+    <t>BASE IDU IR185/243ICY/RHO/URA</t>
+  </si>
+  <si>
+    <t>EVAPORATOR COIL IR123GRD/IVR IDU</t>
+  </si>
+  <si>
+    <t>FAN MOTOR DC IR183GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>FAN MOTOR IR183GRD/IVR IDU</t>
+  </si>
+  <si>
+    <t>DISPLAY ASSY WA183FLT</t>
+  </si>
+  <si>
+    <t>Copper Pipe</t>
+  </si>
+  <si>
+    <t>Back panel IR183/184/194/243/185MB/MS IDU</t>
+  </si>
+  <si>
+    <t>VANE VERTICAL SR123/183ASR IDU</t>
+  </si>
+  <si>
+    <t>AIR FILTER SR183ASR IDU</t>
+  </si>
+  <si>
+    <t>LOW PRESSUR VALVE ASSY(3/8) IA123GDR/SLK</t>
+  </si>
+  <si>
+    <t>FAN MOTOR IR123GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>FRONT PANEL IR183GRD IDU</t>
+  </si>
+  <si>
+    <t>BACK PANEL IR183GRD/IVR IDU</t>
+  </si>
+  <si>
+    <t>EVAPORATOR COIL IR183GRD/IVR IDU</t>
+  </si>
+  <si>
+    <t>FAN BLADE ODU SR183SLK1/GDR1</t>
+  </si>
+  <si>
+    <t>Fan SR123/183SG/SS ODU</t>
+  </si>
+  <si>
+    <t>Fan Motor SR123/183SG/SS ODU</t>
+  </si>
+  <si>
+    <t>EVAPORATOR ASSY SUPPORT IR183CRL/IRS/ONX IDU</t>
+  </si>
+  <si>
+    <t>BIG HANDLE SR123SLK/GDR</t>
+  </si>
+  <si>
+    <t>CONDENSOR ASSY INV12RGO ODU</t>
+  </si>
+  <si>
+    <t>Vertical Vane</t>
+  </si>
+  <si>
+    <t>Valve</t>
   </si>
 </sst>
 </file>
@@ -4610,7 +4688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4627,23 +4705,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4949,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1482"/>
+  <dimension ref="A1:C1506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
-      <selection activeCell="B1457" sqref="B1457"/>
+    <sheetView tabSelected="1" topLeftCell="A1475" workbookViewId="0">
+      <selection activeCell="C1477" sqref="C1477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15083,6053 +15158,6309 @@
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A921" s="6">
+      <c r="A921" s="4">
         <v>11038673</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C921" s="7" t="s">
+      <c r="C921" s="5" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A922" s="6">
+      <c r="A922" s="4">
         <v>11027330</v>
       </c>
       <c r="B922" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C922" s="7" t="s">
+      <c r="C922" s="5" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A923" s="6">
+      <c r="A923" s="4">
         <v>11038207</v>
       </c>
       <c r="B923" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C923" s="7" t="s">
+      <c r="C923" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A924" s="6">
+      <c r="A924" s="4">
         <v>11002594</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C924" s="7" t="s">
+      <c r="C924" s="5" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A925" s="6">
+      <c r="A925" s="4">
         <v>11055017</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C925" s="7" t="s">
+      <c r="C925" s="5" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A926" s="6">
+      <c r="A926" s="4">
         <v>11027280</v>
       </c>
       <c r="B926" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C926" s="7" t="s">
+      <c r="C926" s="5" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A927" s="6">
+      <c r="A927" s="4">
         <v>11031824</v>
       </c>
       <c r="B927" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C927" s="7" t="s">
+      <c r="C927" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A928" s="6">
+      <c r="A928" s="4">
         <v>11031820</v>
       </c>
       <c r="B928" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C928" s="7" t="s">
+      <c r="C928" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A929" s="6">
+      <c r="A929" s="4">
         <v>11031819</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C929" s="7" t="s">
+      <c r="C929" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A930" s="6">
+      <c r="A930" s="4">
         <v>11031720</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C930" s="7" t="s">
+      <c r="C930" s="5" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A931" s="6">
+      <c r="A931" s="4">
         <v>11048287</v>
       </c>
       <c r="B931" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C931" s="7" t="s">
+      <c r="C931" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A932" s="6">
+      <c r="A932" s="4">
         <v>11021370</v>
       </c>
       <c r="B932" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C932" s="7" t="s">
+      <c r="C932" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A933" s="6">
+      <c r="A933" s="4">
         <v>11034520</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C933" s="7" t="s">
+      <c r="C933" s="5" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A934" s="6">
+      <c r="A934" s="4">
         <v>11051284</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C934" s="7" t="s">
+      <c r="C934" s="5" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A935" s="6">
+      <c r="A935" s="4">
         <v>11028605</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C935" s="7" t="s">
+      <c r="C935" s="5" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A936" s="6">
+      <c r="A936" s="4">
         <v>11023643</v>
       </c>
       <c r="B936" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C936" s="7" t="s">
+      <c r="C936" s="5" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A937" s="6">
+      <c r="A937" s="4">
         <v>11024454</v>
       </c>
       <c r="B937" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C937" s="7" t="s">
+      <c r="C937" s="5" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A938" s="6">
+      <c r="A938" s="4">
         <v>11028615</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C938" s="7" t="s">
+      <c r="C938" s="5" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A939" s="6">
+      <c r="A939" s="4">
         <v>11029088</v>
       </c>
       <c r="B939" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C939" s="7" t="s">
+      <c r="C939" s="5" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A940" s="6">
+      <c r="A940" s="4">
         <v>11028749</v>
       </c>
       <c r="B940" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C940" s="7" t="s">
+      <c r="C940" s="5" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A941" s="6">
+      <c r="A941" s="4">
         <v>11024330</v>
       </c>
       <c r="B941" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C941" s="7" t="s">
+      <c r="C941" s="5" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A942" s="6">
+      <c r="A942" s="4">
         <v>11024210</v>
       </c>
       <c r="B942" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C942" s="7" t="s">
+      <c r="C942" s="5" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A943" s="6">
+      <c r="A943" s="4">
         <v>11021592</v>
       </c>
       <c r="B943" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C943" s="7" t="s">
+      <c r="C943" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A944" s="6">
+      <c r="A944" s="4">
         <v>11024132</v>
       </c>
       <c r="B944" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C944" s="7" t="s">
+      <c r="C944" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A945" s="6">
+      <c r="A945" s="4">
         <v>11031825</v>
       </c>
       <c r="B945" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C945" s="7" t="s">
+      <c r="C945" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A946" s="6">
+      <c r="A946" s="4">
         <v>11032298</v>
       </c>
       <c r="B946" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C946" s="7" t="s">
+      <c r="C946" s="5" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A947" s="6">
+      <c r="A947" s="4">
         <v>11032242</v>
       </c>
       <c r="B947" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C947" s="7" t="s">
+      <c r="C947" s="5" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A948" s="6">
+      <c r="A948" s="4">
         <v>11032569</v>
       </c>
       <c r="B948" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C948" s="7" t="s">
+      <c r="C948" s="5" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A949" s="6">
+      <c r="A949" s="4">
         <v>11038427</v>
       </c>
       <c r="B949" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C949" s="7" t="s">
+      <c r="C949" s="5" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A950" s="6">
+      <c r="A950" s="4">
         <v>11041224</v>
       </c>
       <c r="B950" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C950" s="7" t="s">
+      <c r="C950" s="5" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A951" s="6">
+      <c r="A951" s="4">
         <v>11038459</v>
       </c>
       <c r="B951" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C951" s="7" t="s">
+      <c r="C951" s="5" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A952" s="6">
+      <c r="A952" s="4">
         <v>11032542</v>
       </c>
       <c r="B952" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C952" s="7" t="s">
+      <c r="C952" s="5" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A953" s="6">
+      <c r="A953" s="4">
         <v>11060870</v>
       </c>
       <c r="B953" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C953" s="7" t="s">
+      <c r="C953" s="5" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A954" s="6">
+      <c r="A954" s="4">
         <v>11060850</v>
       </c>
       <c r="B954" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C954" s="7" t="s">
+      <c r="C954" s="5" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A955" s="6">
+      <c r="A955" s="4">
         <v>11060851</v>
       </c>
       <c r="B955" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C955" s="7" t="s">
+      <c r="C955" s="5" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A956" s="6">
+      <c r="A956" s="4">
         <v>11027338</v>
       </c>
       <c r="B956" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C956" s="7" t="s">
+      <c r="C956" s="5" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A957" s="6">
+      <c r="A957" s="4">
         <v>11060856</v>
       </c>
       <c r="B957" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C957" s="7" t="s">
+      <c r="C957" s="5" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A958" s="6">
+      <c r="A958" s="4">
         <v>11062768</v>
       </c>
       <c r="B958" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C958" s="7" t="s">
+      <c r="C958" s="5" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A959" s="6">
+      <c r="A959" s="4">
         <v>11060860</v>
       </c>
       <c r="B959" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C959" s="7" t="s">
+      <c r="C959" s="5" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A960" s="6">
+      <c r="A960" s="4">
         <v>11060861</v>
       </c>
       <c r="B960" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C960" s="7" t="s">
+      <c r="C960" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A961" s="6">
+      <c r="A961" s="4">
         <v>11048269</v>
       </c>
       <c r="B961" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C961" s="7" t="s">
+      <c r="C961" s="5" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A962" s="6">
+      <c r="A962" s="4">
         <v>11029076</v>
       </c>
       <c r="B962" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C962" s="7" t="s">
+      <c r="C962" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A963" s="6">
+      <c r="A963" s="4">
         <v>11051077</v>
       </c>
       <c r="B963" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C963" s="7" t="s">
+      <c r="C963" s="5" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A964" s="6">
+      <c r="A964" s="4">
         <v>11056410</v>
       </c>
       <c r="B964" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C964" s="7" t="s">
+      <c r="C964" s="5" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A965" s="6">
+      <c r="A965" s="4">
         <v>11054513</v>
       </c>
       <c r="B965" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C965" s="7" t="s">
+      <c r="C965" s="5" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A966" s="6">
+      <c r="A966" s="4">
         <v>11048049</v>
       </c>
       <c r="B966" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C966" s="7" t="s">
+      <c r="C966" s="5" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A967" s="6">
+      <c r="A967" s="4">
         <v>11048282</v>
       </c>
       <c r="B967" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C967" s="7" t="s">
+      <c r="C967" s="5" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A968" s="6">
+      <c r="A968" s="4">
         <v>11048050</v>
       </c>
       <c r="B968" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C968" s="7" t="s">
+      <c r="C968" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A969" s="6">
+      <c r="A969" s="4">
         <v>11048027</v>
       </c>
       <c r="B969" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C969" s="7" t="s">
+      <c r="C969" s="5" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A970" s="6">
+      <c r="A970" s="4">
         <v>11051228</v>
       </c>
       <c r="B970" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C970" s="7" t="s">
+      <c r="C970" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A971" s="6">
+      <c r="A971" s="4">
         <v>11051112</v>
       </c>
       <c r="B971" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C971" s="7" t="s">
+      <c r="C971" s="5" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A972" s="6">
+      <c r="A972" s="4">
         <v>11055706</v>
       </c>
       <c r="B972" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C972" s="7" t="s">
+      <c r="C972" s="5" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A973" s="6">
+      <c r="A973" s="4">
         <v>11056275</v>
       </c>
       <c r="B973" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C973" s="7" t="s">
+      <c r="C973" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A974" s="6">
+      <c r="A974" s="4">
         <v>11054511</v>
       </c>
       <c r="B974" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C974" s="7" t="s">
+      <c r="C974" s="5" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A975" s="6">
+      <c r="A975" s="4">
         <v>11054483</v>
       </c>
       <c r="B975" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C975" s="7" t="s">
+      <c r="C975" s="5" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A976" s="6">
+      <c r="A976" s="4">
         <v>11056455</v>
       </c>
       <c r="B976" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C976" s="7" t="s">
+      <c r="C976" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A977" s="6">
+      <c r="A977" s="4">
         <v>11048035</v>
       </c>
       <c r="B977" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C977" s="7" t="s">
+      <c r="C977" s="5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A978" s="6">
+      <c r="A978" s="4">
         <v>11054503</v>
       </c>
       <c r="B978" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C978" s="7" t="s">
+      <c r="C978" s="5" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A979" s="6">
+      <c r="A979" s="4">
         <v>11048314</v>
       </c>
       <c r="B979" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C979" s="7" t="s">
+      <c r="C979" s="5" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A980" s="6">
+      <c r="A980" s="4">
         <v>11048293</v>
       </c>
       <c r="B980" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C980" s="7" t="s">
+      <c r="C980" s="5" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A981" s="6">
+      <c r="A981" s="4">
         <v>11051711</v>
       </c>
       <c r="B981" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C981" s="7" t="s">
+      <c r="C981" s="5" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A982" s="6">
+      <c r="A982" s="4">
         <v>11048037</v>
       </c>
       <c r="B982" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C982" s="7" t="s">
+      <c r="C982" s="5" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A983" s="6">
+      <c r="A983" s="4">
         <v>11048040</v>
       </c>
       <c r="B983" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C983" s="7" t="s">
+      <c r="C983" s="5" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A984" s="6">
+      <c r="A984" s="4">
         <v>11048044</v>
       </c>
       <c r="B984" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C984" s="7" t="s">
+      <c r="C984" s="5" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A985" s="6">
+      <c r="A985" s="4">
         <v>11050554</v>
       </c>
       <c r="B985" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C985" s="7" t="s">
+      <c r="C985" s="5" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A986" s="6">
+      <c r="A986" s="4">
         <v>11035078</v>
       </c>
       <c r="B986" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C986" s="7" t="s">
+      <c r="C986" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A987" s="6">
+      <c r="A987" s="4">
         <v>11048042</v>
       </c>
       <c r="B987" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C987" s="7" t="s">
+      <c r="C987" s="5" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A988" s="6">
+      <c r="A988" s="4">
         <v>11050552</v>
       </c>
       <c r="B988" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C988" s="7" t="s">
+      <c r="C988" s="5" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A989" s="6">
+      <c r="A989" s="4">
         <v>11048285</v>
       </c>
       <c r="B989" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C989" s="7" t="s">
+      <c r="C989" s="5" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A990" s="6">
+      <c r="A990" s="4">
         <v>11051079</v>
       </c>
       <c r="B990" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C990" s="7" t="s">
+      <c r="C990" s="5" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A991" s="6">
+      <c r="A991" s="4">
         <v>11048322</v>
       </c>
       <c r="B991" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C991" s="7" t="s">
+      <c r="C991" s="5" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A992" s="6">
+      <c r="A992" s="4">
         <v>11038289</v>
       </c>
       <c r="B992" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C992" s="7" t="s">
+      <c r="C992" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A993" s="6">
+      <c r="A993" s="4">
         <v>11051293</v>
       </c>
       <c r="B993" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C993" s="7" t="s">
+      <c r="C993" s="5" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A994" s="6">
+      <c r="A994" s="4">
         <v>11051242</v>
       </c>
       <c r="B994" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C994" s="7" t="s">
+      <c r="C994" s="5" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A995" s="6">
+      <c r="A995" s="4">
         <v>12012995</v>
       </c>
       <c r="B995" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C995" s="7" t="s">
+      <c r="C995" s="5" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A996" s="6">
+      <c r="A996" s="4">
         <v>11023647</v>
       </c>
       <c r="B996" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C996" s="7" t="s">
+      <c r="C996" s="5" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A997" s="6">
+      <c r="A997" s="4">
         <v>11051256</v>
       </c>
       <c r="B997" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C997" s="7" t="s">
+      <c r="C997" s="5" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A998" s="6">
+      <c r="A998" s="4">
         <v>11057046</v>
       </c>
       <c r="B998" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C998" s="7" t="s">
+      <c r="C998" s="5" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A999" s="6">
+      <c r="A999" s="4">
         <v>12012997</v>
       </c>
       <c r="B999" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C999" s="7" t="s">
+      <c r="C999" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1000" s="6">
+      <c r="A1000" s="4">
         <v>11056364</v>
       </c>
       <c r="B1000" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1000" s="7" t="s">
+      <c r="C1000" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1001" s="6">
+      <c r="A1001" s="4">
         <v>11056392</v>
       </c>
       <c r="B1001" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1001" s="7" t="s">
+      <c r="C1001" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1002" s="6">
+      <c r="A1002" s="4">
         <v>11038664</v>
       </c>
       <c r="B1002" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1002" s="7" t="s">
+      <c r="C1002" s="5" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1003" s="6">
+      <c r="A1003" s="4">
         <v>11034854</v>
       </c>
       <c r="B1003" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1003" s="7" t="s">
+      <c r="C1003" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1004" s="6">
+      <c r="A1004" s="4">
         <v>11041184</v>
       </c>
       <c r="B1004" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1004" s="7" t="s">
+      <c r="C1004" s="5" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1005" s="6">
+      <c r="A1005" s="4">
         <v>11051297</v>
       </c>
       <c r="B1005" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1005" s="7" t="s">
+      <c r="C1005" s="5" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1006" s="6">
+      <c r="A1006" s="4">
         <v>11048412</v>
       </c>
       <c r="B1006" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1006" s="7" t="s">
+      <c r="C1006" s="5" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1007" s="6">
+      <c r="A1007" s="4">
         <v>11041847</v>
       </c>
       <c r="B1007" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1007" s="7" t="s">
+      <c r="C1007" s="5" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1008" s="6">
+      <c r="A1008" s="4">
         <v>11056331</v>
       </c>
       <c r="B1008" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1008" s="7" t="s">
+      <c r="C1008" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1009" s="6">
+      <c r="A1009" s="4">
         <v>11034873</v>
       </c>
       <c r="B1009" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1009" s="7" t="s">
+      <c r="C1009" s="5" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1010" s="6">
+      <c r="A1010" s="4">
         <v>11051290</v>
       </c>
       <c r="B1010" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1010" s="7" t="s">
+      <c r="C1010" s="5" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1011" s="6">
+      <c r="A1011" s="4">
         <v>11056326</v>
       </c>
       <c r="B1011" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1011" s="7" t="s">
+      <c r="C1011" s="5" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1012" s="6">
+      <c r="A1012" s="4">
         <v>11051249</v>
       </c>
       <c r="B1012" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1012" s="7" t="s">
+      <c r="C1012" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1013" s="6">
+      <c r="A1013" s="4">
         <v>11061278</v>
       </c>
       <c r="B1013" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1013" s="7" t="s">
+      <c r="C1013" s="5" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1014" s="6">
+      <c r="A1014" s="4">
         <v>12013000</v>
       </c>
       <c r="B1014" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C1014" s="7" t="s">
+      <c r="C1014" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1015" s="6">
+      <c r="A1015" s="4">
         <v>11051298</v>
       </c>
       <c r="B1015" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1015" s="7" t="s">
+      <c r="C1015" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1016" s="6">
+      <c r="A1016" s="4">
         <v>11054398</v>
       </c>
       <c r="B1016" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1016" s="7" t="s">
+      <c r="C1016" s="5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1017" s="6">
+      <c r="A1017" s="4">
         <v>11051248</v>
       </c>
       <c r="B1017" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1017" s="7" t="s">
+      <c r="C1017" s="5" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1018" s="6">
+      <c r="A1018" s="4">
         <v>11051305</v>
       </c>
       <c r="B1018" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1018" s="7" t="s">
+      <c r="C1018" s="5" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1019" s="6">
+      <c r="A1019" s="4">
         <v>11056387</v>
       </c>
       <c r="B1019" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1019" s="7" t="s">
+      <c r="C1019" s="5" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1020" s="6">
+      <c r="A1020" s="4">
         <v>11056343</v>
       </c>
       <c r="B1020" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1020" s="7" t="s">
+      <c r="C1020" s="5" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1021" s="6">
+      <c r="A1021" s="4">
         <v>11061282</v>
       </c>
       <c r="B1021" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1021" s="7" t="s">
+      <c r="C1021" s="5" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1022" s="6">
+      <c r="A1022" s="4">
         <v>11055054</v>
       </c>
       <c r="B1022" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1022" s="7" t="s">
+      <c r="C1022" s="5" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1023" s="6">
+      <c r="A1023" s="4">
         <v>11053011</v>
       </c>
       <c r="B1023" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1023" s="7" t="s">
+      <c r="C1023" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1024" s="6">
+      <c r="A1024" s="4">
         <v>11051299</v>
       </c>
       <c r="B1024" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1024" s="7" t="s">
+      <c r="C1024" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1025" s="6">
+      <c r="A1025" s="4">
         <v>11038451</v>
       </c>
       <c r="B1025" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1025" s="7" t="s">
+      <c r="C1025" s="5" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1026" s="6">
+      <c r="A1026" s="4">
         <v>11054495</v>
       </c>
       <c r="B1026" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1026" s="7" t="s">
+      <c r="C1026" s="5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1027" s="6">
+      <c r="A1027" s="4">
         <v>11009286</v>
       </c>
       <c r="B1027" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1027" s="7" t="s">
+      <c r="C1027" s="5" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1028" s="6">
+      <c r="A1028" s="4">
         <v>11034879</v>
       </c>
       <c r="B1028" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1028" s="7" t="s">
+      <c r="C1028" s="5" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1029" s="6">
+      <c r="A1029" s="4">
         <v>11027324</v>
       </c>
       <c r="B1029" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1029" s="7" t="s">
+      <c r="C1029" s="5" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1030" s="6">
+      <c r="A1030" s="4">
         <v>11051265</v>
       </c>
       <c r="B1030" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1030" s="7" t="s">
+      <c r="C1030" s="5" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1031" s="6">
+      <c r="A1031" s="4">
         <v>11059190</v>
       </c>
       <c r="B1031" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1031" s="7" t="s">
+      <c r="C1031" s="5" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1032" s="6">
+      <c r="A1032" s="4">
         <v>11051246</v>
       </c>
       <c r="B1032" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1032" s="7" t="s">
+      <c r="C1032" s="5" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1033" s="6">
+      <c r="A1033" s="4">
         <v>11059192</v>
       </c>
       <c r="B1033" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1033" s="7" t="s">
+      <c r="C1033" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1034" s="6">
+      <c r="A1034" s="4">
         <v>11059169</v>
       </c>
       <c r="B1034" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1034" s="7" t="s">
+      <c r="C1034" s="5" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1035" s="6">
+      <c r="A1035" s="4">
         <v>11059165</v>
       </c>
       <c r="B1035" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1035" s="7" t="s">
+      <c r="C1035" s="5" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1036" s="6">
+      <c r="A1036" s="4">
         <v>11059164</v>
       </c>
       <c r="B1036" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1036" s="7" t="s">
+      <c r="C1036" s="5" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1037" s="6">
+      <c r="A1037" s="4">
         <v>11059191</v>
       </c>
       <c r="B1037" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1037" s="7" t="s">
+      <c r="C1037" s="5" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1038" s="6">
+      <c r="A1038" s="4">
         <v>11059189</v>
       </c>
       <c r="B1038" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1038" s="7" t="s">
+      <c r="C1038" s="5" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1039" s="6">
+      <c r="A1039" s="4">
         <v>11059167</v>
       </c>
       <c r="B1039" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1039" s="7" t="s">
+      <c r="C1039" s="5" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1040" s="6">
+      <c r="A1040" s="4">
         <v>11060686</v>
       </c>
       <c r="B1040" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1040" s="7" t="s">
+      <c r="C1040" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1041" s="6">
+      <c r="A1041" s="4">
         <v>11059162</v>
       </c>
       <c r="B1041" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1041" s="7" t="s">
+      <c r="C1041" s="5" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1042" s="6">
+      <c r="A1042" s="4">
         <v>11056383</v>
       </c>
       <c r="B1042" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1042" s="7" t="s">
+      <c r="C1042" s="5" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1043" s="6">
+      <c r="A1043" s="4">
         <v>11063440</v>
       </c>
       <c r="B1043" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1043" s="7" t="s">
+      <c r="C1043" s="5" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1044" s="6">
+      <c r="A1044" s="4">
         <v>11063291</v>
       </c>
       <c r="B1044" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1044" s="7" t="s">
+      <c r="C1044" s="5" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1045" s="6">
+      <c r="A1045" s="4">
         <v>11063301</v>
       </c>
       <c r="B1045" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="C1045" s="7" t="s">
+      <c r="C1045" s="5" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1046" s="6">
+      <c r="A1046" s="4">
         <v>11060671</v>
       </c>
       <c r="B1046" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1046" s="7" t="s">
+      <c r="C1046" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1047" s="6">
+      <c r="A1047" s="4">
         <v>11059784</v>
       </c>
       <c r="B1047" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1047" s="7" t="s">
+      <c r="C1047" s="5" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1048" s="6">
+      <c r="A1048" s="4">
         <v>11051681</v>
       </c>
       <c r="B1048" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1048" s="7" t="s">
+      <c r="C1048" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1049" s="6">
+      <c r="A1049" s="4">
         <v>11051602</v>
       </c>
       <c r="B1049" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1049" s="7" t="s">
+      <c r="C1049" s="5" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1050" s="6">
+      <c r="A1050" s="4">
         <v>11051676</v>
       </c>
       <c r="B1050" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1050" s="7" t="s">
+      <c r="C1050" s="5" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1051" s="6">
+      <c r="A1051" s="4">
         <v>11051683</v>
       </c>
       <c r="B1051" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1051" s="7" t="s">
+      <c r="C1051" s="5" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1052" s="6">
+      <c r="A1052" s="4">
         <v>11051625</v>
       </c>
       <c r="B1052" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="C1052" s="7" t="s">
+      <c r="C1052" s="5" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1053" s="6">
+      <c r="A1053" s="4">
         <v>11059296</v>
       </c>
       <c r="B1053" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1053" s="7" t="s">
+      <c r="C1053" s="5" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1054" s="6">
+      <c r="A1054" s="4">
         <v>11060992</v>
       </c>
       <c r="B1054" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C1054" s="7" t="s">
+      <c r="C1054" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1055" s="6">
+      <c r="A1055" s="4">
         <v>11061821</v>
       </c>
       <c r="B1055" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1055" s="7" t="s">
+      <c r="C1055" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1056" s="6">
+      <c r="A1056" s="4">
         <v>11051611</v>
       </c>
       <c r="B1056" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1056" s="7" t="s">
+      <c r="C1056" s="5" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1057" s="6">
+      <c r="A1057" s="4">
         <v>11051677</v>
       </c>
       <c r="B1057" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1057" s="7" t="s">
+      <c r="C1057" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1058" s="6">
+      <c r="A1058" s="4">
         <v>11051679</v>
       </c>
       <c r="B1058" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1058" s="7" t="s">
+      <c r="C1058" s="5" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1059" s="6">
+      <c r="A1059" s="4">
         <v>11063324</v>
       </c>
       <c r="B1059" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1059" s="7" t="s">
+      <c r="C1059" s="5" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1060" s="6">
+      <c r="A1060" s="4">
         <v>11041059</v>
       </c>
       <c r="B1060" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1060" s="7" t="s">
+      <c r="C1060" s="5" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1061" s="6">
+      <c r="A1061" s="4">
         <v>11048087</v>
       </c>
       <c r="B1061" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1061" s="7" t="s">
+      <c r="C1061" s="5" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1062" s="6">
+      <c r="A1062" s="4">
         <v>11041083</v>
       </c>
       <c r="B1062" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1062" s="7" t="s">
+      <c r="C1062" s="5" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1063" s="6">
+      <c r="A1063" s="4">
         <v>11051345</v>
       </c>
       <c r="B1063" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1063" s="7" t="s">
+      <c r="C1063" s="5" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1064" s="6">
+      <c r="A1064" s="4">
         <v>11054604</v>
       </c>
       <c r="B1064" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1064" s="7" t="s">
+      <c r="C1064" s="5" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1065" s="6">
+      <c r="A1065" s="4">
         <v>11028648</v>
       </c>
       <c r="B1065" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1065" s="7" t="s">
+      <c r="C1065" s="5" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1066" s="6">
+      <c r="A1066" s="4">
         <v>11038231</v>
       </c>
       <c r="B1066" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1066" s="7" t="s">
+      <c r="C1066" s="5" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1067" s="6">
+      <c r="A1067" s="4">
         <v>11052688</v>
       </c>
       <c r="B1067" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1067" s="7" t="s">
+      <c r="C1067" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1068" s="6">
+      <c r="A1068" s="4">
         <v>11041878</v>
       </c>
       <c r="B1068" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1068" s="7" t="s">
+      <c r="C1068" s="5" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1069" s="6">
+      <c r="A1069" s="4">
         <v>11027281</v>
       </c>
       <c r="B1069" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1069" s="7" t="s">
+      <c r="C1069" s="5" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1070" s="6">
+      <c r="A1070" s="4">
         <v>11060980</v>
       </c>
       <c r="B1070" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1070" s="7" t="s">
+      <c r="C1070" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1071" s="6">
+      <c r="A1071" s="4">
         <v>11059260</v>
       </c>
       <c r="B1071" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1071" s="7" t="s">
+      <c r="C1071" s="5" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1072" s="6">
+      <c r="A1072" s="4">
         <v>11059303</v>
       </c>
       <c r="B1072" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1072" s="7" t="s">
+      <c r="C1072" s="5" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1073" s="6">
+      <c r="A1073" s="4">
         <v>11063372</v>
       </c>
       <c r="B1073" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1073" s="7" t="s">
+      <c r="C1073" s="5" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1074" s="6">
+      <c r="A1074" s="4">
         <v>11059792</v>
       </c>
       <c r="B1074" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1074" s="7" t="s">
+      <c r="C1074" s="5" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1075" s="6">
+      <c r="A1075" s="4">
         <v>11030243</v>
       </c>
       <c r="B1075" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1075" s="7" t="s">
+      <c r="C1075" s="5" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1076" s="6">
+      <c r="A1076" s="4">
         <v>11059228</v>
       </c>
       <c r="B1076" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1076" s="7" t="s">
+      <c r="C1076" s="5" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1077" s="6">
+      <c r="A1077" s="4">
         <v>11038286</v>
       </c>
       <c r="B1077" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="C1077" s="7" t="s">
+      <c r="C1077" s="5" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1078" s="6">
+      <c r="A1078" s="4">
         <v>11059224</v>
       </c>
       <c r="B1078" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1078" s="7" t="s">
+      <c r="C1078" s="5" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1079" s="6">
+      <c r="A1079" s="4">
         <v>11041922</v>
       </c>
       <c r="B1079" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1079" s="7" t="s">
+      <c r="C1079" s="5" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1080" s="6">
+      <c r="A1080" s="4">
         <v>11063333</v>
       </c>
       <c r="B1080" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1080" s="7" t="s">
+      <c r="C1080" s="5" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1081" s="6">
+      <c r="A1081" s="4">
         <v>11054595</v>
       </c>
       <c r="B1081" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1081" s="7" t="s">
+      <c r="C1081" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1082" s="6">
+      <c r="A1082" s="4">
         <v>11059226</v>
       </c>
       <c r="B1082" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1082" s="7" t="s">
+      <c r="C1082" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1083" s="6">
+      <c r="A1083" s="4">
         <v>11060987</v>
       </c>
       <c r="B1083" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C1083" s="7" t="s">
+      <c r="C1083" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1084" s="6">
+      <c r="A1084" s="4">
         <v>11061646</v>
       </c>
       <c r="B1084" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1084" s="7" t="s">
+      <c r="C1084" s="5" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1085" s="6">
+      <c r="A1085" s="4">
         <v>11059110</v>
       </c>
       <c r="B1085" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1085" s="7" t="s">
+      <c r="C1085" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1086" s="6">
+      <c r="A1086" s="4">
         <v>11059115</v>
       </c>
       <c r="B1086" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1086" s="7" t="s">
+      <c r="C1086" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1087" s="6">
+      <c r="A1087" s="4">
         <v>11056497</v>
       </c>
       <c r="B1087" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C1087" s="7" t="s">
+      <c r="C1087" s="5" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1088" s="6">
+      <c r="A1088" s="4">
         <v>11061936</v>
       </c>
       <c r="B1088" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1088" s="7" t="s">
+      <c r="C1088" s="5" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1089" s="6">
+      <c r="A1089" s="4">
         <v>11059121</v>
       </c>
       <c r="B1089" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1089" s="7" t="s">
+      <c r="C1089" s="5" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1090" s="6">
+      <c r="A1090" s="4">
         <v>11059123</v>
       </c>
       <c r="B1090" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1090" s="7" t="s">
+      <c r="C1090" s="5" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1091" s="6">
+      <c r="A1091" s="4">
         <v>11056500</v>
       </c>
       <c r="B1091" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1091" s="7" t="s">
+      <c r="C1091" s="5" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1092" s="6">
+      <c r="A1092" s="4">
         <v>11059288</v>
       </c>
       <c r="B1092" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1092" s="7" t="s">
+      <c r="C1092" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1093" s="6">
+      <c r="A1093" s="4">
         <v>11044426</v>
       </c>
       <c r="B1093" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="C1093" s="7" t="s">
+      <c r="C1093" s="5" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1094" s="6">
+      <c r="A1094" s="4">
         <v>11061078</v>
       </c>
       <c r="B1094" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1094" s="7" t="s">
+      <c r="C1094" s="5" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1095" s="6">
+      <c r="A1095" s="4">
         <v>11059225</v>
       </c>
       <c r="B1095" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1095" s="7" t="s">
+      <c r="C1095" s="5" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1096" s="6">
+      <c r="A1096" s="4">
         <v>11054592</v>
       </c>
       <c r="B1096" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1096" s="7" t="s">
+      <c r="C1096" s="5" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1097" s="6">
+      <c r="A1097" s="4">
         <v>11062842</v>
       </c>
       <c r="B1097" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1097" s="7" t="s">
+      <c r="C1097" s="5" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1098" s="6">
+      <c r="A1098" s="4">
         <v>11051251</v>
       </c>
       <c r="B1098" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1098" s="7" t="s">
+      <c r="C1098" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1099" s="6">
+      <c r="A1099" s="4">
         <v>11026598</v>
       </c>
       <c r="B1099" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1099" s="7" t="s">
+      <c r="C1099" s="5" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1100" s="6">
+      <c r="A1100" s="4">
         <v>11041621</v>
       </c>
       <c r="B1100" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1100" s="7" t="s">
+      <c r="C1100" s="5" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1101" s="6">
+      <c r="A1101" s="4">
         <v>11051278</v>
       </c>
       <c r="B1101" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1101" s="7" t="s">
+      <c r="C1101" s="5" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1102" s="6">
+      <c r="A1102" s="4">
         <v>11055058</v>
       </c>
       <c r="B1102" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1102" s="7" t="s">
+      <c r="C1102" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1103" s="6">
+      <c r="A1103" s="4">
         <v>11059037</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1103" s="7" t="s">
+      <c r="C1103" s="5" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1104" s="6">
+      <c r="A1104" s="4">
         <v>11060151</v>
       </c>
       <c r="B1104" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1104" s="7" t="s">
+      <c r="C1104" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1105" s="6">
+      <c r="A1105" s="4">
         <v>11056542</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1105" s="7" t="s">
+      <c r="C1105" s="5" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="6">
+      <c r="A1106" s="4">
         <v>11056559</v>
       </c>
       <c r="B1106" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1106" s="7" t="s">
+      <c r="C1106" s="5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="6">
+      <c r="A1107" s="4">
         <v>11056528</v>
       </c>
       <c r="B1107" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1107" s="7" t="s">
+      <c r="C1107" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1108" s="6">
+      <c r="A1108" s="4">
         <v>11056532</v>
       </c>
       <c r="B1108" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1108" s="7" t="s">
+      <c r="C1108" s="5" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1109" s="6">
+      <c r="A1109" s="4">
         <v>11059076</v>
       </c>
       <c r="B1109" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1109" s="7" t="s">
+      <c r="C1109" s="5" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1110" s="6">
+      <c r="A1110" s="4">
         <v>11059561</v>
       </c>
       <c r="B1110" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C1110" s="7" t="s">
+      <c r="C1110" s="5" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1111" s="6">
+      <c r="A1111" s="4">
         <v>11059075</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1111" s="7" t="s">
+      <c r="C1111" s="5" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1112" s="6">
+      <c r="A1112" s="4">
         <v>11059235</v>
       </c>
       <c r="B1112" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1112" s="7" t="s">
+      <c r="C1112" s="5" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1113" s="6">
+      <c r="A1113" s="4">
         <v>11054981</v>
       </c>
       <c r="B1113" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1113" s="7" t="s">
+      <c r="C1113" s="5" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1114" s="6">
+      <c r="A1114" s="4">
         <v>11059212</v>
       </c>
       <c r="B1114" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C1114" s="7" t="s">
+      <c r="C1114" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1115" s="6">
+      <c r="A1115" s="4">
         <v>11059213</v>
       </c>
       <c r="B1115" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1115" s="7" t="s">
+      <c r="C1115" s="5" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1116" s="6">
+      <c r="A1116" s="4">
         <v>11059102</v>
       </c>
       <c r="B1116" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1116" s="7" t="s">
+      <c r="C1116" s="5" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1117" s="6">
+      <c r="A1117" s="4">
         <v>11054979</v>
       </c>
       <c r="B1117" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1117" s="7" t="s">
+      <c r="C1117" s="5" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1118" s="6">
+      <c r="A1118" s="4">
         <v>11056554</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1118" s="7" t="s">
+      <c r="C1118" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1119" s="6">
+      <c r="A1119" s="4">
         <v>11056553</v>
       </c>
       <c r="B1119" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1119" s="7" t="s">
+      <c r="C1119" s="5" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" s="6">
+      <c r="A1120" s="4">
         <v>11059035</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="C1120" s="7" t="s">
+      <c r="C1120" s="5" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1121" s="6">
+      <c r="A1121" s="4">
         <v>11056524</v>
       </c>
       <c r="B1121" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1121" s="7" t="s">
+      <c r="C1121" s="5" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1122" s="6">
+      <c r="A1122" s="4">
         <v>11056522</v>
       </c>
       <c r="B1122" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1122" s="7" t="s">
+      <c r="C1122" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1123" s="6">
+      <c r="A1123" s="4">
         <v>11059085</v>
       </c>
       <c r="B1123" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1123" s="7" t="s">
+      <c r="C1123" s="5" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1124" s="6">
+      <c r="A1124" s="4">
         <v>11059099</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1124" s="7" t="s">
+      <c r="C1124" s="5" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1125" s="6">
+      <c r="A1125" s="4">
         <v>11059058</v>
       </c>
       <c r="B1125" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C1125" s="7" t="s">
+      <c r="C1125" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1126" s="6">
+      <c r="A1126" s="4">
         <v>11051493</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1126" s="7" t="s">
+      <c r="C1126" s="5" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1127" s="6">
+      <c r="A1127" s="4">
         <v>11051500</v>
       </c>
       <c r="B1127" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1127" s="7" t="s">
+      <c r="C1127" s="5" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1128" s="6">
+      <c r="A1128" s="4">
         <v>11031829</v>
       </c>
       <c r="B1128" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1128" s="7" t="s">
+      <c r="C1128" s="5" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1129" s="6">
+      <c r="A1129" s="4">
         <v>11038462</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="C1129" s="7" t="s">
+      <c r="C1129" s="5" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1130" s="6">
+      <c r="A1130" s="4">
         <v>11038589</v>
       </c>
       <c r="B1130" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1130" s="7" t="s">
+      <c r="C1130" s="5" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1131" s="6">
+      <c r="A1131" s="4">
         <v>11038447</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1131" s="7" t="s">
+      <c r="C1131" s="5" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1132" s="6">
+      <c r="A1132" s="4">
         <v>11046318</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1132" s="7" t="s">
+      <c r="C1132" s="5" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1133" s="6">
+      <c r="A1133" s="4">
         <v>11038450</v>
       </c>
       <c r="B1133" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1133" s="7" t="s">
+      <c r="C1133" s="5" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1134" s="6">
+      <c r="A1134" s="4">
         <v>11046314</v>
       </c>
       <c r="B1134" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1134" s="7" t="s">
+      <c r="C1134" s="5" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1135" s="6">
+      <c r="A1135" s="4">
         <v>11046152</v>
       </c>
       <c r="B1135" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1135" s="7" t="s">
+      <c r="C1135" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1136" s="6">
+      <c r="A1136" s="4">
         <v>11045075</v>
       </c>
       <c r="B1136" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1136" s="7" t="s">
+      <c r="C1136" s="5" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1137" s="6">
+      <c r="A1137" s="4">
         <v>11046049</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1137" s="7" t="s">
+      <c r="C1137" s="5" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1138" s="6">
+      <c r="A1138" s="4">
         <v>11041222</v>
       </c>
       <c r="B1138" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1138" s="7" t="s">
+      <c r="C1138" s="5" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1139" s="6">
+      <c r="A1139" s="4">
         <v>11041179</v>
       </c>
       <c r="B1139" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1139" s="7" t="s">
+      <c r="C1139" s="5" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1140" s="6">
+      <c r="A1140" s="4">
         <v>11041188</v>
       </c>
       <c r="B1140" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1140" s="7" t="s">
+      <c r="C1140" s="5" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1141" s="6">
+      <c r="A1141" s="4">
         <v>11038458</v>
       </c>
       <c r="B1141" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1141" s="7" t="s">
+      <c r="C1141" s="5" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1142" s="6">
+      <c r="A1142" s="4">
         <v>11038453</v>
       </c>
       <c r="B1142" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1142" s="7" t="s">
+      <c r="C1142" s="5" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1143" s="6">
+      <c r="A1143" s="4">
         <v>11046307</v>
       </c>
       <c r="B1143" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1143" s="7" t="s">
+      <c r="C1143" s="5" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1144" s="6">
+      <c r="A1144" s="4">
         <v>11041192</v>
       </c>
       <c r="B1144" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1144" s="7" t="s">
+      <c r="C1144" s="5" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1145" s="6">
+      <c r="A1145" s="4">
         <v>11041122</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1145" s="7" t="s">
+      <c r="C1145" s="5" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1146" s="6">
+      <c r="A1146" s="4">
         <v>11046199</v>
       </c>
       <c r="B1146" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1146" s="7" t="s">
+      <c r="C1146" s="5" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1147" s="6">
+      <c r="A1147" s="4">
         <v>11041207</v>
       </c>
       <c r="B1147" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1147" s="7" t="s">
+      <c r="C1147" s="5" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1148" s="6">
+      <c r="A1148" s="4">
         <v>11049524</v>
       </c>
       <c r="B1148" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1148" s="7" t="s">
+      <c r="C1148" s="5" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1149" s="6">
+      <c r="A1149" s="4">
         <v>11061048</v>
       </c>
       <c r="B1149" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1149" s="7" t="s">
+      <c r="C1149" s="5" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1150" s="6">
+      <c r="A1150" s="4">
         <v>11061057</v>
       </c>
       <c r="B1150" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1150" s="7" t="s">
+      <c r="C1150" s="5" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1151" s="6">
+      <c r="A1151" s="4">
         <v>11061034</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1151" s="7" t="s">
+      <c r="C1151" s="5" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1152" s="6">
+      <c r="A1152" s="4">
         <v>11056515</v>
       </c>
       <c r="B1152" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1152" s="7" t="s">
+      <c r="C1152" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1153" s="6">
+      <c r="A1153" s="4">
         <v>11056558</v>
       </c>
       <c r="B1153" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1153" s="7" t="s">
+      <c r="C1153" s="5" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1154" s="6">
+      <c r="A1154" s="4">
         <v>11059106</v>
       </c>
       <c r="B1154" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1154" s="7" t="s">
+      <c r="C1154" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1155" s="6">
+      <c r="A1155" s="4">
         <v>11059101</v>
       </c>
       <c r="B1155" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1155" s="7" t="s">
+      <c r="C1155" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1156" s="6">
+      <c r="A1156" s="4">
         <v>11062484</v>
       </c>
       <c r="B1156" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1156" s="7" t="s">
+      <c r="C1156" s="5" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1157" s="6">
+      <c r="A1157" s="4">
         <v>11056413</v>
       </c>
       <c r="B1157" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1157" s="7" t="s">
+      <c r="C1157" s="5" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1158" s="6">
+      <c r="A1158" s="4">
         <v>11056411</v>
       </c>
       <c r="B1158" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1158" s="7" t="s">
+      <c r="C1158" s="5" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1159" s="6">
+      <c r="A1159" s="4">
         <v>11056418</v>
       </c>
       <c r="B1159" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1159" s="7" t="s">
+      <c r="C1159" s="5" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1160" s="6">
+      <c r="A1160" s="4">
         <v>11056427</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1160" s="7" t="s">
+      <c r="C1160" s="5" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1161" s="6">
+      <c r="A1161" s="4">
         <v>11056412</v>
       </c>
       <c r="B1161" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1161" s="7" t="s">
+      <c r="C1161" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1162" s="6">
+      <c r="A1162" s="4">
         <v>11056424</v>
       </c>
       <c r="B1162" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1162" s="7" t="s">
+      <c r="C1162" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1163" s="6">
+      <c r="A1163" s="4">
         <v>11057271</v>
       </c>
       <c r="B1163" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1163" s="7" t="s">
+      <c r="C1163" s="5" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1164" s="6">
+      <c r="A1164" s="4">
         <v>11059457</v>
       </c>
       <c r="B1164" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1164" s="7" t="s">
+      <c r="C1164" s="5" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1165" s="6">
+      <c r="A1165" s="4">
         <v>11059534</v>
       </c>
       <c r="B1165" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1165" s="7" t="s">
+      <c r="C1165" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1166" s="6">
+      <c r="A1166" s="4">
         <v>11059524</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1166" s="7" t="s">
+      <c r="C1166" s="5" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1167" s="6">
+      <c r="A1167" s="4">
         <v>11059526</v>
       </c>
       <c r="B1167" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1167" s="7" t="s">
+      <c r="C1167" s="5" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1168" s="6">
+      <c r="A1168" s="4">
         <v>11059758</v>
       </c>
       <c r="B1168" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1168" s="7" t="s">
+      <c r="C1168" s="5" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1169" s="6">
+      <c r="A1169" s="4">
         <v>11056441</v>
       </c>
       <c r="B1169" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="C1169" s="7" t="s">
+      <c r="C1169" s="5" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1170" s="6">
+      <c r="A1170" s="4">
         <v>11059485</v>
       </c>
       <c r="B1170" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1170" s="7" t="s">
+      <c r="C1170" s="5" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1171" s="6">
+      <c r="A1171" s="4">
         <v>11059450</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1171" s="7" t="s">
+      <c r="C1171" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1172" s="6">
+      <c r="A1172" s="4">
         <v>11059449</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1172" s="7" t="s">
+      <c r="C1172" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1173" s="6">
+      <c r="A1173" s="4">
         <v>11059446</v>
       </c>
       <c r="B1173" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1173" s="7" t="s">
+      <c r="C1173" s="5" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1174" s="6">
+      <c r="A1174" s="4">
         <v>11059466</v>
       </c>
       <c r="B1174" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1174" s="7" t="s">
+      <c r="C1174" s="5" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1175" s="6">
+      <c r="A1175" s="4">
         <v>11059468</v>
       </c>
       <c r="B1175" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1175" s="7" t="s">
+      <c r="C1175" s="5" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1176" s="6">
+      <c r="A1176" s="4">
         <v>11059487</v>
       </c>
       <c r="B1176" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1176" s="7" t="s">
+      <c r="C1176" s="5" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1177" s="6">
+      <c r="A1177" s="4">
         <v>11059755</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1177" s="7" t="s">
+      <c r="C1177" s="5" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1178" s="6">
+      <c r="A1178" s="4">
         <v>11059471</v>
       </c>
       <c r="B1178" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1178" s="7" t="s">
+      <c r="C1178" s="5" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1179" s="6">
+      <c r="A1179" s="4">
         <v>11056434</v>
       </c>
       <c r="B1179" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1179" s="7" t="s">
+      <c r="C1179" s="5" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1180" s="6">
+      <c r="A1180" s="4">
         <v>11059451</v>
       </c>
       <c r="B1180" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1180" s="7" t="s">
+      <c r="C1180" s="5" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1181" s="6">
+      <c r="A1181" s="4">
         <v>11059438</v>
       </c>
       <c r="B1181" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1181" s="7" t="s">
+      <c r="C1181" s="5" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1182" s="6">
+      <c r="A1182" s="4">
         <v>11059442</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1182" s="7" t="s">
+      <c r="C1182" s="5" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1183" s="6">
+      <c r="A1183" s="4">
         <v>11059447</v>
       </c>
       <c r="B1183" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1183" s="7" t="s">
+      <c r="C1183" s="5" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1184" s="6">
+      <c r="A1184" s="4">
         <v>11057274</v>
       </c>
       <c r="B1184" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1184" s="7" t="s">
+      <c r="C1184" s="5" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1185" s="6">
+      <c r="A1185" s="4">
         <v>11059430</v>
       </c>
       <c r="B1185" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1185" s="7" t="s">
+      <c r="C1185" s="5" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1186" s="6">
+      <c r="A1186" s="4">
         <v>11038465</v>
       </c>
       <c r="B1186" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1186" s="7" t="s">
+      <c r="C1186" s="5" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1187" s="6">
+      <c r="A1187" s="4">
         <v>11038429</v>
       </c>
       <c r="B1187" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1187" s="7" t="s">
+      <c r="C1187" s="5" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1188" s="6">
+      <c r="A1188" s="4">
         <v>11035804</v>
       </c>
       <c r="B1188" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1188" s="7" t="s">
+      <c r="C1188" s="5" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1189" s="6">
+      <c r="A1189" s="4">
         <v>11031919</v>
       </c>
       <c r="B1189" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C1189" s="7" t="s">
+      <c r="C1189" s="5" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1190" s="6">
+      <c r="A1190" s="4">
         <v>11029824</v>
       </c>
       <c r="B1190" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C1190" s="7" t="s">
+      <c r="C1190" s="5" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1191" s="6">
+      <c r="A1191" s="4">
         <v>11035069</v>
       </c>
       <c r="B1191" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1191" s="7" t="s">
+      <c r="C1191" s="5" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1192" s="6">
+      <c r="A1192" s="4">
         <v>11061072</v>
       </c>
       <c r="B1192" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1192" s="7" t="s">
+      <c r="C1192" s="5" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1193" s="6">
+      <c r="A1193" s="4">
         <v>11051582</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1193" s="7" t="s">
+      <c r="C1193" s="5" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1194" s="6">
+      <c r="A1194" s="4">
         <v>11054955</v>
       </c>
       <c r="B1194" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1194" s="7" t="s">
+      <c r="C1194" s="5" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1195" s="6">
+      <c r="A1195" s="4">
         <v>11051590</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1195" s="7" t="s">
+      <c r="C1195" s="5" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1196" s="6">
+      <c r="A1196" s="4">
         <v>11059399</v>
       </c>
       <c r="B1196" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="C1196" s="7" t="s">
+      <c r="C1196" s="5" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1197" s="6">
+      <c r="A1197" s="4">
         <v>11059405</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1197" s="7" t="s">
+      <c r="C1197" s="5" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1198" s="6">
+      <c r="A1198" s="4">
         <v>11059404</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1198" s="7" t="s">
+      <c r="C1198" s="5" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1199" s="6">
+      <c r="A1199" s="4">
         <v>11046288</v>
       </c>
       <c r="B1199" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1199" s="7" t="s">
+      <c r="C1199" s="5" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1200" s="6">
+      <c r="A1200" s="4">
         <v>11059735</v>
       </c>
       <c r="B1200" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1200" s="7" t="s">
+      <c r="C1200" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1201" s="6">
+      <c r="A1201" s="4">
         <v>11059386</v>
       </c>
       <c r="B1201" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="C1201" s="7" t="s">
+      <c r="C1201" s="5" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1202" s="6">
+      <c r="A1202" s="4">
         <v>11026578</v>
       </c>
       <c r="B1202" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1202" s="7" t="s">
+      <c r="C1202" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1203" s="6">
+      <c r="A1203" s="4">
         <v>11054606</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1203" s="7" t="s">
+      <c r="C1203" s="5" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1204" s="6">
+      <c r="A1204" s="4">
         <v>11054591</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1204" s="7" t="s">
+      <c r="C1204" s="5" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1205" s="6">
+      <c r="A1205" s="4">
         <v>11054572</v>
       </c>
       <c r="B1205" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1205" s="7" t="s">
+      <c r="C1205" s="5" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1206" s="6">
+      <c r="A1206" s="4">
         <v>11054611</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1206" s="7" t="s">
+      <c r="C1206" s="5" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1207" s="6">
+      <c r="A1207" s="4">
         <v>11055104</v>
       </c>
       <c r="B1207" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1207" s="7" t="s">
+      <c r="C1207" s="5" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1208" s="6">
+      <c r="A1208" s="4">
         <v>11026591</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1208" s="7" t="s">
+      <c r="C1208" s="5" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1209" s="6">
+      <c r="A1209" s="4">
         <v>11026599</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1209" s="7" t="s">
+      <c r="C1209" s="5" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1210" s="6">
+      <c r="A1210" s="4">
         <v>11054587</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1210" s="7" t="s">
+      <c r="C1210" s="5" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1211" s="6">
+      <c r="A1211" s="4">
         <v>11032537</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1211" s="7" t="s">
+      <c r="C1211" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1212" s="6">
+      <c r="A1212" s="4">
         <v>11041352</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1212" s="7" t="s">
+      <c r="C1212" s="5" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1213" s="6">
+      <c r="A1213" s="4">
         <v>11026596</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1213" s="7" t="s">
+      <c r="C1213" s="5" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1214" s="6">
+      <c r="A1214" s="4">
         <v>11045070</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1214" s="7" t="s">
+      <c r="C1214" s="5" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1215" s="6">
+      <c r="A1215" s="4">
         <v>11045069</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1215" s="7" t="s">
+      <c r="C1215" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1216" s="6">
+      <c r="A1216" s="4">
         <v>11032440</v>
       </c>
       <c r="B1216" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1216" s="7" t="s">
+      <c r="C1216" s="5" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1217" s="6">
+      <c r="A1217" s="4">
         <v>11028634</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1217" s="7" t="s">
+      <c r="C1217" s="5" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1218" s="6">
+      <c r="A1218" s="4">
         <v>11045071</v>
       </c>
       <c r="B1218" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1218" s="7" t="s">
+      <c r="C1218" s="5" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1219" s="6">
+      <c r="A1219" s="4">
         <v>11045089</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1219" s="7" t="s">
+      <c r="C1219" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1220" s="6">
+      <c r="A1220" s="4">
         <v>11061272</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1220" s="7" t="s">
+      <c r="C1220" s="5" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1221" s="6">
+      <c r="A1221" s="4">
         <v>11061276</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1221" s="7" t="s">
+      <c r="C1221" s="5" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1222" s="6">
+      <c r="A1222" s="4">
         <v>11061283</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1222" s="7" t="s">
+      <c r="C1222" s="5" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1223" s="6">
+      <c r="A1223" s="4">
         <v>11061279</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1223" s="7" t="s">
+      <c r="C1223" s="5" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1224" s="6">
+      <c r="A1224" s="4">
         <v>11061287</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1224" s="7" t="s">
+      <c r="C1224" s="5" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1225" s="6">
+      <c r="A1225" s="4">
         <v>11035788</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1225" s="7" t="s">
+      <c r="C1225" s="5" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1226" s="6">
+      <c r="A1226" s="4">
         <v>11038643</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1226" s="7" t="s">
+      <c r="C1226" s="5" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1227" s="6">
+      <c r="A1227" s="4">
         <v>11038212</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1227" s="7" t="s">
+      <c r="C1227" s="5" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1228" s="6">
+      <c r="A1228" s="4">
         <v>11027328</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1228" s="7" t="s">
+      <c r="C1228" s="5" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1229" s="6">
+      <c r="A1229" s="4">
         <v>11031800</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1229" s="7" t="s">
+      <c r="C1229" s="5" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1230" s="6">
+      <c r="A1230" s="4">
         <v>11031799</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1230" s="7" t="s">
+      <c r="C1230" s="5" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1231" s="6">
+      <c r="A1231" s="4">
         <v>11031711</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1231" s="7" t="s">
+      <c r="C1231" s="5" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1232" s="6">
+      <c r="A1232" s="4">
         <v>11031828</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1232" s="7" t="s">
+      <c r="C1232" s="5" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1233" s="6">
+      <c r="A1233" s="4">
         <v>11031792</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="C1233" s="7" t="s">
+      <c r="C1233" s="5" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1234" s="6">
+      <c r="A1234" s="4">
         <v>11032576</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1234" s="7" t="s">
+      <c r="C1234" s="5" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1235" s="6">
+      <c r="A1235" s="4">
         <v>11031865</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1235" s="7" t="s">
+      <c r="C1235" s="5" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1236" s="6">
+      <c r="A1236" s="4">
         <v>11051854</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1236" s="7" t="s">
+      <c r="C1236" s="5" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1237" s="6">
+      <c r="A1237" s="4">
         <v>11034526</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1237" s="7" t="s">
+      <c r="C1237" s="5" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1238" s="6">
+      <c r="A1238" s="4">
         <v>11034874</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1238" s="7" t="s">
+      <c r="C1238" s="5" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1239" s="6">
+      <c r="A1239" s="4">
         <v>11028833</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1239" s="7" t="s">
+      <c r="C1239" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1240" s="6">
+      <c r="A1240" s="4">
         <v>11034862</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1240" s="7" t="s">
+      <c r="C1240" s="5" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1241" s="6">
+      <c r="A1241" s="4">
         <v>11021361</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1241" s="7" t="s">
+      <c r="C1241" s="5" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1242" s="6">
+      <c r="A1242" s="4">
         <v>11028148</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1242" s="7" t="s">
+      <c r="C1242" s="5" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1243" s="6">
+      <c r="A1243" s="4">
         <v>11030526</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1243" s="7" t="s">
+      <c r="C1243" s="5" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1244" s="6">
+      <c r="A1244" s="4">
         <v>11027258</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1244" s="7" t="s">
+      <c r="C1244" s="5" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1245" s="6">
+      <c r="A1245" s="4">
         <v>11028564</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1245" s="7" t="s">
+      <c r="C1245" s="5" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1246" s="6">
+      <c r="A1246" s="4">
         <v>11038460</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1246" s="7" t="s">
+      <c r="C1246" s="5" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1247" s="6">
+      <c r="A1247" s="4">
         <v>11051283</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1247" s="7" t="s">
+      <c r="C1247" s="5" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1248" s="6">
+      <c r="A1248" s="4">
         <v>11029462</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1248" s="7" t="s">
+      <c r="C1248" s="5" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1249" s="6">
+      <c r="A1249" s="4">
         <v>11028750</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1249" s="7" t="s">
+      <c r="C1249" s="5" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1250" s="6">
+      <c r="A1250" s="4">
         <v>11021839</v>
       </c>
       <c r="B1250" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1250" s="7" t="s">
+      <c r="C1250" s="5" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1251" s="6">
+      <c r="A1251" s="4">
         <v>11028915</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1251" s="7" t="s">
+      <c r="C1251" s="5" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1252" s="6">
+      <c r="A1252" s="4">
         <v>11019269</v>
       </c>
       <c r="B1252" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1252" s="7" t="s">
+      <c r="C1252" s="5" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1253" s="6">
+      <c r="A1253" s="4">
         <v>11028834</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1253" s="7" t="s">
+      <c r="C1253" s="5" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1254" s="6">
+      <c r="A1254" s="4">
         <v>11027717</v>
       </c>
       <c r="B1254" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1254" s="7" t="s">
+      <c r="C1254" s="5" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1255" s="6">
+      <c r="A1255" s="4">
         <v>11021353</v>
       </c>
       <c r="B1255" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1255" s="7" t="s">
+      <c r="C1255" s="5" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1256" s="6">
+      <c r="A1256" s="4">
         <v>11032556</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C1256" s="7" t="s">
+      <c r="C1256" s="5" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1257" s="6">
+      <c r="A1257" s="4">
         <v>11032593</v>
       </c>
       <c r="B1257" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1257" s="7" t="s">
+      <c r="C1257" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1258" s="6">
+      <c r="A1258" s="4">
         <v>11032590</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1258" s="7" t="s">
+      <c r="C1258" s="5" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1259" s="6">
+      <c r="A1259" s="4">
         <v>11032563</v>
       </c>
       <c r="B1259" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1259" s="7" t="s">
+      <c r="C1259" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1260" s="6">
+      <c r="A1260" s="4">
         <v>11029980</v>
       </c>
       <c r="B1260" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1260" s="7" t="s">
+      <c r="C1260" s="5" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1261" s="6">
+      <c r="A1261" s="4">
         <v>11048295</v>
       </c>
       <c r="B1261" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1261" s="7" t="s">
+      <c r="C1261" s="5" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1262" s="6">
+      <c r="A1262" s="4">
         <v>11054507</v>
       </c>
       <c r="B1262" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1262" s="7" t="s">
+      <c r="C1262" s="5" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1263" s="6">
+      <c r="A1263" s="4">
         <v>11027245</v>
       </c>
       <c r="B1263" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1263" s="7" t="s">
+      <c r="C1263" s="5" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1264" s="6">
+      <c r="A1264" s="4">
         <v>11048303</v>
       </c>
       <c r="B1264" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1264" s="7" t="s">
+      <c r="C1264" s="5" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1265" s="6">
+      <c r="A1265" s="4">
         <v>11054509</v>
       </c>
       <c r="B1265" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1265" s="7" t="s">
+      <c r="C1265" s="5" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1266" s="6">
+      <c r="A1266" s="4">
         <v>11056463</v>
       </c>
       <c r="B1266" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1266" s="7" t="s">
+      <c r="C1266" s="5" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1267" s="6">
+      <c r="A1267" s="4">
         <v>11048034</v>
       </c>
       <c r="B1267" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1267" s="7" t="s">
+      <c r="C1267" s="5" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1268" s="6">
+      <c r="A1268" s="4">
         <v>11054501</v>
       </c>
       <c r="B1268" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1268" s="7" t="s">
+      <c r="C1268" s="5" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1269" s="6">
+      <c r="A1269" s="4">
         <v>11032412</v>
       </c>
       <c r="B1269" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1269" s="7" t="s">
+      <c r="C1269" s="5" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1270" s="6">
+      <c r="A1270" s="4">
         <v>11056451</v>
       </c>
       <c r="B1270" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1270" s="7" t="s">
+      <c r="C1270" s="5" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1271" s="6">
+      <c r="A1271" s="4">
         <v>11054393</v>
       </c>
       <c r="B1271" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1271" s="7" t="s">
+      <c r="C1271" s="5" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1272" s="6">
+      <c r="A1272" s="4">
         <v>11048025</v>
       </c>
       <c r="B1272" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1272" s="7" t="s">
+      <c r="C1272" s="5" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1273" s="6">
+      <c r="A1273" s="4">
         <v>11019236</v>
       </c>
       <c r="B1273" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1273" s="7" t="s">
+      <c r="C1273" s="5" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1274" s="6">
+      <c r="A1274" s="4">
         <v>11054790</v>
       </c>
       <c r="B1274" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1274" s="7" t="s">
+      <c r="C1274" s="5" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1275" s="6">
+      <c r="A1275" s="4">
         <v>11056453</v>
       </c>
       <c r="B1275" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1275" s="7" t="s">
+      <c r="C1275" s="5" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1276" s="6">
+      <c r="A1276" s="4">
         <v>11054956</v>
       </c>
       <c r="B1276" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1276" s="7" t="s">
+      <c r="C1276" s="5" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1277" s="6">
+      <c r="A1277" s="4">
         <v>11028291</v>
       </c>
       <c r="B1277" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1277" s="7" t="s">
+      <c r="C1277" s="5" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1278" s="6">
+      <c r="A1278" s="4">
         <v>11054517</v>
       </c>
       <c r="B1278" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1278" s="7" t="s">
+      <c r="C1278" s="5" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1279" s="6">
+      <c r="A1279" s="4">
         <v>11048315</v>
       </c>
       <c r="B1279" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1279" s="7" t="s">
+      <c r="C1279" s="5" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1280" s="6">
+      <c r="A1280" s="4">
         <v>11056356</v>
       </c>
       <c r="B1280" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1280" s="7" t="s">
+      <c r="C1280" s="5" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1281" s="6">
+      <c r="A1281" s="4">
         <v>11051274</v>
       </c>
       <c r="B1281" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1281" s="7" t="s">
+      <c r="C1281" s="5" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1282" s="6">
+      <c r="A1282" s="4">
         <v>11051247</v>
       </c>
       <c r="B1282" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1282" s="7" t="s">
+      <c r="C1282" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1283" s="6">
+      <c r="A1283" s="4">
         <v>11028613</v>
       </c>
       <c r="B1283" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1283" s="7" t="s">
+      <c r="C1283" s="5" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1284" s="6">
+      <c r="A1284" s="4">
         <v>11054397</v>
       </c>
       <c r="B1284" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1284" s="7" t="s">
+      <c r="C1284" s="5" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1285" s="6">
+      <c r="A1285" s="4">
         <v>12012996</v>
       </c>
       <c r="B1285" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1285" s="7" t="s">
+      <c r="C1285" s="5" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1286" s="6">
+      <c r="A1286" s="4">
         <v>11051287</v>
       </c>
       <c r="B1286" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1286" s="7" t="s">
+      <c r="C1286" s="5" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1287" s="6">
+      <c r="A1287" s="4">
         <v>11056347</v>
       </c>
       <c r="B1287" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1287" s="7" t="s">
+      <c r="C1287" s="5" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1288" s="6">
+      <c r="A1288" s="4">
         <v>11056325</v>
       </c>
       <c r="B1288" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1288" s="7" t="s">
+      <c r="C1288" s="5" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1289" s="6">
+      <c r="A1289" s="4">
         <v>12012998</v>
       </c>
       <c r="B1289" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1289" s="7" t="s">
+      <c r="C1289" s="5" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1290" s="6">
+      <c r="A1290" s="4">
         <v>11056351</v>
       </c>
       <c r="B1290" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C1290" s="7" t="s">
+      <c r="C1290" s="5" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1291" s="6">
+      <c r="A1291" s="4">
         <v>12012999</v>
       </c>
       <c r="B1291" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1291" s="7" t="s">
+      <c r="C1291" s="5" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1292" s="6">
+      <c r="A1292" s="4">
         <v>11054496</v>
       </c>
       <c r="B1292" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1292" s="7" t="s">
+      <c r="C1292" s="5" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1293" s="6">
+      <c r="A1293" s="4">
         <v>11041204</v>
       </c>
       <c r="B1293" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1293" s="7" t="s">
+      <c r="C1293" s="5" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1294" s="6">
+      <c r="A1294" s="4">
         <v>11041147</v>
       </c>
       <c r="B1294" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1294" s="7" t="s">
+      <c r="C1294" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1295" s="6">
+      <c r="A1295" s="4">
         <v>11051266</v>
       </c>
       <c r="B1295" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1295" s="7" t="s">
+      <c r="C1295" s="5" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1296" s="6">
+      <c r="A1296" s="4">
         <v>11056328</v>
       </c>
       <c r="B1296" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1296" s="7" t="s">
+      <c r="C1296" s="5" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1297" s="6">
+      <c r="A1297" s="4">
         <v>11029987</v>
       </c>
       <c r="B1297" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1297" s="7" t="s">
+      <c r="C1297" s="5" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1298" s="6">
+      <c r="A1298" s="4">
         <v>11056336</v>
       </c>
       <c r="B1298" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1298" s="7" t="s">
+      <c r="C1298" s="5" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1299" s="6">
+      <c r="A1299" s="4">
         <v>11056399</v>
       </c>
       <c r="B1299" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1299" s="7" t="s">
+      <c r="C1299" s="5" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1300" s="6">
+      <c r="A1300" s="4">
         <v>11034875</v>
       </c>
       <c r="B1300" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1300" s="7" t="s">
+      <c r="C1300" s="5" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1301" s="6">
+      <c r="A1301" s="4">
         <v>11027247</v>
       </c>
       <c r="B1301" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1301" s="7" t="s">
+      <c r="C1301" s="5" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1302" s="6">
+      <c r="A1302" s="4">
         <v>11056345</v>
       </c>
       <c r="B1302" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1302" s="7" t="s">
+      <c r="C1302" s="5" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1303" s="6">
+      <c r="A1303" s="4">
         <v>11027249</v>
       </c>
       <c r="B1303" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1303" s="7" t="s">
+      <c r="C1303" s="5" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1304" s="6">
+      <c r="A1304" s="4">
         <v>11031811</v>
       </c>
       <c r="B1304" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1304" s="7" t="s">
+      <c r="C1304" s="5" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1305" s="6">
+      <c r="A1305" s="4">
         <v>11056360</v>
       </c>
       <c r="B1305" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1305" s="7" t="s">
+      <c r="C1305" s="5" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1306" s="6">
+      <c r="A1306" s="4">
         <v>11056380</v>
       </c>
       <c r="B1306" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1306" s="7" t="s">
+      <c r="C1306" s="5" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1307" s="6">
+      <c r="A1307" s="4">
         <v>11057111</v>
       </c>
       <c r="B1307" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1307" s="7" t="s">
+      <c r="C1307" s="5" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1308" s="6">
+      <c r="A1308" s="4">
         <v>11051268</v>
       </c>
       <c r="B1308" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1308" s="7" t="s">
+      <c r="C1308" s="5" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1309" s="6">
+      <c r="A1309" s="4">
         <v>11021826</v>
       </c>
       <c r="B1309" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1309" s="7" t="s">
+      <c r="C1309" s="5" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1310" s="6">
+      <c r="A1310" s="4">
         <v>11030242</v>
       </c>
       <c r="B1310" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1310" s="7" t="s">
+      <c r="C1310" s="5" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1311" s="6">
+      <c r="A1311" s="4">
         <v>11041094</v>
       </c>
       <c r="B1311" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1311" s="7" t="s">
+      <c r="C1311" s="5" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1312" s="6">
+      <c r="A1312" s="4">
         <v>11041180</v>
       </c>
       <c r="B1312" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1312" s="7" t="s">
+      <c r="C1312" s="5" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1313" s="6">
+      <c r="A1313" s="4">
         <v>11051309</v>
       </c>
       <c r="B1313" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1313" s="7" t="s">
+      <c r="C1313" s="5" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1314" s="6">
+      <c r="A1314" s="4">
         <v>11051332</v>
       </c>
       <c r="B1314" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1314" s="7" t="s">
+      <c r="C1314" s="5" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1315" s="6">
+      <c r="A1315" s="4">
         <v>11059183</v>
       </c>
       <c r="B1315" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1315" s="7" t="s">
+      <c r="C1315" s="5" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1316" s="6">
+      <c r="A1316" s="4">
         <v>11059182</v>
       </c>
       <c r="B1316" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1316" s="7" t="s">
+      <c r="C1316" s="5" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1317" s="6">
+      <c r="A1317" s="4">
         <v>11060467</v>
       </c>
       <c r="B1317" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1317" s="7" t="s">
+      <c r="C1317" s="5" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1318" s="6">
+      <c r="A1318" s="4">
         <v>11031895</v>
       </c>
       <c r="B1318" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1318" s="7" t="s">
+      <c r="C1318" s="5" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1319" s="6">
+      <c r="A1319" s="4">
         <v>11056378</v>
       </c>
       <c r="B1319" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1319" s="7" t="s">
+      <c r="C1319" s="5" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1320" s="6">
+      <c r="A1320" s="4">
         <v>11059194</v>
       </c>
       <c r="B1320" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1320" s="7" t="s">
+      <c r="C1320" s="5" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1321" s="6">
+      <c r="A1321" s="4">
         <v>11051624</v>
       </c>
       <c r="B1321" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1321" s="7" t="s">
+      <c r="C1321" s="5" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1322" s="6">
+      <c r="A1322" s="4">
         <v>11051610</v>
       </c>
       <c r="B1322" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1322" s="7" t="s">
+      <c r="C1322" s="5" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1323" s="6">
+      <c r="A1323" s="4">
         <v>11051609</v>
       </c>
       <c r="B1323" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1323" s="7" t="s">
+      <c r="C1323" s="5" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1324" s="6">
+      <c r="A1324" s="4">
         <v>11044405</v>
       </c>
       <c r="B1324" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1324" s="7" t="s">
+      <c r="C1324" s="5" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1325" s="6">
+      <c r="A1325" s="4">
         <v>11027283</v>
       </c>
       <c r="B1325" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1325" s="7" t="s">
+      <c r="C1325" s="5" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1326" s="6">
+      <c r="A1326" s="4">
         <v>11032259</v>
       </c>
       <c r="B1326" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1326" s="7" t="s">
+      <c r="C1326" s="5" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1327" s="6">
+      <c r="A1327" s="4">
         <v>11044438</v>
       </c>
       <c r="B1327" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1327" s="7" t="s">
+      <c r="C1327" s="5" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1328" s="6">
+      <c r="A1328" s="4">
         <v>11059302</v>
       </c>
       <c r="B1328" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1328" s="7" t="s">
+      <c r="C1328" s="5" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1329" s="6">
+      <c r="A1329" s="4">
         <v>11054666</v>
       </c>
       <c r="B1329" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1329" s="7" t="s">
+      <c r="C1329" s="5" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1330" s="6">
+      <c r="A1330" s="4">
         <v>11037044</v>
       </c>
       <c r="B1330" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1330" s="7" t="s">
+      <c r="C1330" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1331" s="6">
+      <c r="A1331" s="4">
         <v>11027282</v>
       </c>
       <c r="B1331" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1331" s="7" t="s">
+      <c r="C1331" s="5" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1332" s="6">
+      <c r="A1332" s="4">
         <v>11056487</v>
       </c>
       <c r="B1332" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1332" s="7" t="s">
+      <c r="C1332" s="5" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1333" s="6">
+      <c r="A1333" s="4">
         <v>11028126</v>
       </c>
       <c r="B1333" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="C1333" s="7" t="s">
+      <c r="C1333" s="5" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1334" s="6">
+      <c r="A1334" s="4">
         <v>11044434</v>
       </c>
       <c r="B1334" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1334" s="7" t="s">
+      <c r="C1334" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1335" s="6">
+      <c r="A1335" s="4">
         <v>11059254</v>
       </c>
       <c r="B1335" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1335" s="7" t="s">
+      <c r="C1335" s="5" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1336" s="6">
+      <c r="A1336" s="4">
         <v>11059274</v>
       </c>
       <c r="B1336" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1336" s="7" t="s">
+      <c r="C1336" s="5" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1337" s="6">
+      <c r="A1337" s="4">
         <v>11056486</v>
       </c>
       <c r="B1337" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1337" s="7" t="s">
+      <c r="C1337" s="5" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1338" s="6">
+      <c r="A1338" s="4">
         <v>11059791</v>
       </c>
       <c r="B1338" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1338" s="7" t="s">
+      <c r="C1338" s="5" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1339" s="6">
+      <c r="A1339" s="4">
         <v>11054621</v>
       </c>
       <c r="B1339" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1339" s="7" t="s">
+      <c r="C1339" s="5" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1340" s="6">
+      <c r="A1340" s="4">
         <v>11059272</v>
       </c>
       <c r="B1340" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1340" s="7" t="s">
+      <c r="C1340" s="5" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1341" s="6">
+      <c r="A1341" s="4">
         <v>11054597</v>
       </c>
       <c r="B1341" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1341" s="7" t="s">
+      <c r="C1341" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1342" s="6">
+      <c r="A1342" s="4">
         <v>11059227</v>
       </c>
       <c r="B1342" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1342" s="7" t="s">
+      <c r="C1342" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1343" s="6">
+      <c r="A1343" s="4">
         <v>11028286</v>
       </c>
       <c r="B1343" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1343" s="7" t="s">
+      <c r="C1343" s="5" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1344" s="6">
+      <c r="A1344" s="4">
         <v>11023639</v>
       </c>
       <c r="B1344" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1344" s="7" t="s">
+      <c r="C1344" s="5" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1345" s="6">
+      <c r="A1345" s="4">
         <v>11061077</v>
       </c>
       <c r="B1345" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1345" s="7" t="s">
+      <c r="C1345" s="5" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1346" s="6">
+      <c r="A1346" s="4">
         <v>11060145</v>
       </c>
       <c r="B1346" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1346" s="7" t="s">
+      <c r="C1346" s="5" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1347" s="6">
+      <c r="A1347" s="4">
         <v>11048085</v>
       </c>
       <c r="B1347" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1347" s="7" t="s">
+      <c r="C1347" s="5" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1348" s="6">
+      <c r="A1348" s="4">
         <v>11055062</v>
       </c>
       <c r="B1348" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1348" s="7" t="s">
+      <c r="C1348" s="5" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1349" s="6">
+      <c r="A1349" s="4">
         <v>11051300</v>
       </c>
       <c r="B1349" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1349" s="7" t="s">
+      <c r="C1349" s="5" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1350" s="6">
+      <c r="A1350" s="4">
         <v>11051245</v>
       </c>
       <c r="B1350" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1350" s="7" t="s">
+      <c r="C1350" s="5" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1351" s="6">
+      <c r="A1351" s="4">
         <v>11056544</v>
       </c>
       <c r="B1351" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1351" s="7" t="s">
+      <c r="C1351" s="5" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1352" s="6">
+      <c r="A1352" s="4">
         <v>11059104</v>
       </c>
       <c r="B1352" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1352" s="7" t="s">
+      <c r="C1352" s="5" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1353" s="6">
+      <c r="A1353" s="4">
         <v>11059077</v>
       </c>
       <c r="B1353" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1353" s="7" t="s">
+      <c r="C1353" s="5" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1354" s="6">
+      <c r="A1354" s="4">
         <v>11056481</v>
       </c>
       <c r="B1354" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1354" s="7" t="s">
+      <c r="C1354" s="5" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1355" s="6">
+      <c r="A1355" s="4">
         <v>11056560</v>
       </c>
       <c r="B1355" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1355" s="7" t="s">
+      <c r="C1355" s="5" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1356" s="6">
+      <c r="A1356" s="4">
         <v>11056518</v>
       </c>
       <c r="B1356" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1356" s="7" t="s">
+      <c r="C1356" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1357" s="6">
+      <c r="A1357" s="4">
         <v>11056529</v>
       </c>
       <c r="B1357" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1357" s="7" t="s">
+      <c r="C1357" s="5" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1358" s="6">
+      <c r="A1358" s="4">
         <v>11056536</v>
       </c>
       <c r="B1358" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1358" s="7" t="s">
+      <c r="C1358" s="5" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1359" s="6">
+      <c r="A1359" s="4">
         <v>11059040</v>
       </c>
       <c r="B1359" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1359" s="7" t="s">
+      <c r="C1359" s="5" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1360" s="6">
+      <c r="A1360" s="4">
         <v>11059078</v>
       </c>
       <c r="B1360" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="C1360" s="7" t="s">
+      <c r="C1360" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1361" s="6">
+      <c r="A1361" s="4">
         <v>11051505</v>
       </c>
       <c r="B1361" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1361" s="7" t="s">
+      <c r="C1361" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1362" s="6">
+      <c r="A1362" s="4">
         <v>11031827</v>
       </c>
       <c r="B1362" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1362" s="7" t="s">
+      <c r="C1362" s="5" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1363" s="6">
+      <c r="A1363" s="4">
         <v>11054489</v>
       </c>
       <c r="B1363" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1363" s="7" t="s">
+      <c r="C1363" s="5" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1364" s="6">
+      <c r="A1364" s="4">
         <v>11046304</v>
       </c>
       <c r="B1364" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1364" s="7" t="s">
+      <c r="C1364" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1365" s="6">
+      <c r="A1365" s="4">
         <v>11042831</v>
       </c>
       <c r="B1365" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1365" s="7" t="s">
+      <c r="C1365" s="5" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1366" s="6">
+      <c r="A1366" s="4">
         <v>11046306</v>
       </c>
       <c r="B1366" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1366" s="7" t="s">
+      <c r="C1366" s="5" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1367" s="6">
+      <c r="A1367" s="4">
         <v>11038676</v>
       </c>
       <c r="B1367" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1367" s="7" t="s">
+      <c r="C1367" s="5" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1368" s="6">
+      <c r="A1368" s="4">
         <v>11041185</v>
       </c>
       <c r="B1368" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1368" s="7" t="s">
+      <c r="C1368" s="5" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1369" s="6">
+      <c r="A1369" s="4">
         <v>11041187</v>
       </c>
       <c r="B1369" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1369" s="7" t="s">
+      <c r="C1369" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1370" s="6">
+      <c r="A1370" s="4">
         <v>11038448</v>
       </c>
       <c r="B1370" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1370" s="7" t="s">
+      <c r="C1370" s="5" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1371" s="6">
+      <c r="A1371" s="4">
         <v>11041092</v>
       </c>
       <c r="B1371" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1371" s="7" t="s">
+      <c r="C1371" s="5" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1372" s="6">
+      <c r="A1372" s="4">
         <v>11059740</v>
       </c>
       <c r="B1372" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1372" s="7" t="s">
+      <c r="C1372" s="5" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1373" s="6">
+      <c r="A1373" s="4">
         <v>11059061</v>
       </c>
       <c r="B1373" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1373" s="7" t="s">
+      <c r="C1373" s="5" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1374" s="6">
+      <c r="A1374" s="4">
         <v>11059743</v>
       </c>
       <c r="B1374" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1374" s="7" t="s">
+      <c r="C1374" s="5" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1375" s="6">
+      <c r="A1375" s="4">
         <v>11058970</v>
       </c>
       <c r="B1375" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1375" s="7" t="s">
+      <c r="C1375" s="5" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1376" s="6">
+      <c r="A1376" s="4">
         <v>11059151</v>
       </c>
       <c r="B1376" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C1376" s="7" t="s">
+      <c r="C1376" s="5" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1377" s="6">
+      <c r="A1377" s="4">
         <v>11056445</v>
       </c>
       <c r="B1377" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1377" s="7" t="s">
+      <c r="C1377" s="5" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1378" s="6">
+      <c r="A1378" s="4">
         <v>11059377</v>
       </c>
       <c r="B1378" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1378" s="7" t="s">
+      <c r="C1378" s="5" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1379" s="6">
+      <c r="A1379" s="4">
         <v>11056439</v>
       </c>
       <c r="B1379" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1379" s="7" t="s">
+      <c r="C1379" s="5" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1380" s="6">
+      <c r="A1380" s="4">
         <v>11029699</v>
       </c>
       <c r="B1380" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1380" s="7" t="s">
+      <c r="C1380" s="5" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1381" s="6">
+      <c r="A1381" s="4">
         <v>11057250</v>
       </c>
       <c r="B1381" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1381" s="7" t="s">
+      <c r="C1381" s="5" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1382" s="6">
+      <c r="A1382" s="4">
         <v>11057277</v>
       </c>
       <c r="B1382" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1382" s="7" t="s">
+      <c r="C1382" s="5" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1383" s="6">
+      <c r="A1383" s="4">
         <v>11057272</v>
       </c>
       <c r="B1383" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1383" s="7" t="s">
+      <c r="C1383" s="5" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1384" s="6">
+      <c r="A1384" s="4">
         <v>11038430</v>
       </c>
       <c r="B1384" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C1384" s="7" t="s">
+      <c r="C1384" s="5" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1385" s="6">
+      <c r="A1385" s="4">
         <v>11057279</v>
       </c>
       <c r="B1385" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1385" s="7" t="s">
+      <c r="C1385" s="5" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1386" s="6">
+      <c r="A1386" s="4">
         <v>11057281</v>
       </c>
       <c r="B1386" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1386" s="7" t="s">
+      <c r="C1386" s="5" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1387" s="6">
+      <c r="A1387" s="4">
         <v>11057282</v>
       </c>
       <c r="B1387" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1387" s="7" t="s">
+      <c r="C1387" s="5" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1388" s="6">
+      <c r="A1388" s="4">
         <v>11056449</v>
       </c>
       <c r="B1388" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C1388" s="7" t="s">
+      <c r="C1388" s="5" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1389" s="6">
+      <c r="A1389" s="4">
         <v>11024266</v>
       </c>
       <c r="B1389" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1389" s="7" t="s">
+      <c r="C1389" s="5" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1390" s="6">
+      <c r="A1390" s="4">
         <v>11059427</v>
       </c>
       <c r="B1390" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1390" s="7" t="s">
+      <c r="C1390" s="5" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1391" s="6">
+      <c r="A1391" s="4">
         <v>11059432</v>
       </c>
       <c r="B1391" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1391" s="7" t="s">
+      <c r="C1391" s="5" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1392" s="6">
+      <c r="A1392" s="4">
         <v>11059469</v>
       </c>
       <c r="B1392" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1392" s="7" t="s">
+      <c r="C1392" s="5" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1393" s="6">
+      <c r="A1393" s="4">
         <v>11023648</v>
       </c>
       <c r="B1393" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1393" s="7" t="s">
+      <c r="C1393" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1394" s="6">
+      <c r="A1394" s="4">
         <v>11059433</v>
       </c>
       <c r="B1394" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1394" s="7" t="s">
+      <c r="C1394" s="5" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1395" s="6">
+      <c r="A1395" s="4">
         <v>11041182</v>
       </c>
       <c r="B1395" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1395" s="7" t="s">
+      <c r="C1395" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1396" s="6">
+      <c r="A1396" s="4">
         <v>11059429</v>
       </c>
       <c r="B1396" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1396" s="7" t="s">
+      <c r="C1396" s="5" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1397" s="6">
+      <c r="A1397" s="4">
         <v>11059555</v>
       </c>
       <c r="B1397" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1397" s="7" t="s">
+      <c r="C1397" s="5" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1398" s="6">
+      <c r="A1398" s="4">
         <v>11059484</v>
       </c>
       <c r="B1398" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1398" s="7" t="s">
+      <c r="C1398" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1399" s="6">
+      <c r="A1399" s="4">
         <v>11038353</v>
       </c>
       <c r="B1399" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C1399" s="7" t="s">
+      <c r="C1399" s="5" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1400" s="6">
+      <c r="A1400" s="4">
         <v>11027327</v>
       </c>
       <c r="B1400" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1400" s="7" t="s">
+      <c r="C1400" s="5" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1401" s="6">
+      <c r="A1401" s="4">
         <v>11028524</v>
       </c>
       <c r="B1401" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1401" s="7" t="s">
+      <c r="C1401" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1402" s="6">
+      <c r="A1402" s="4">
         <v>11037042</v>
       </c>
       <c r="B1402" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1402" s="7" t="s">
+      <c r="C1402" s="5" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1403" s="6">
+      <c r="A1403" s="4">
         <v>11061069</v>
       </c>
       <c r="B1403" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="C1403" s="7" t="s">
+      <c r="C1403" s="5" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1404" s="6">
+      <c r="A1404" s="4">
         <v>11033085</v>
       </c>
       <c r="B1404" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1404" s="7" t="s">
+      <c r="C1404" s="5" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1405" s="6">
+      <c r="A1405" s="4">
         <v>11035792</v>
       </c>
       <c r="B1405" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1405" s="7" t="s">
+      <c r="C1405" s="5" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1406" s="6">
+      <c r="A1406" s="4">
         <v>11059391</v>
       </c>
       <c r="B1406" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1406" s="7" t="s">
+      <c r="C1406" s="5" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1407" s="6">
+      <c r="A1407" s="4">
         <v>11054581</v>
       </c>
       <c r="B1407" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1407" s="7" t="s">
+      <c r="C1407" s="5" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1408" s="6">
+      <c r="A1408" s="4">
         <v>11026604</v>
       </c>
       <c r="B1408" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C1408" s="7" t="s">
+      <c r="C1408" s="5" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1409" s="6">
+      <c r="A1409" s="4">
         <v>11026606</v>
       </c>
       <c r="B1409" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1409" s="7" t="s">
+      <c r="C1409" s="5" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1410" s="6">
+      <c r="A1410" s="4">
         <v>11026594</v>
       </c>
       <c r="B1410" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="C1410" s="7" t="s">
+      <c r="C1410" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1411" s="6">
+      <c r="A1411" s="4">
         <v>11054594</v>
       </c>
       <c r="B1411" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1411" s="7" t="s">
+      <c r="C1411" s="5" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1412" s="6">
+      <c r="A1412" s="4">
         <v>11054607</v>
       </c>
       <c r="B1412" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1412" s="7" t="s">
+      <c r="C1412" s="5" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1413" s="6">
+      <c r="A1413" s="4">
         <v>11026586</v>
       </c>
       <c r="B1413" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1413" s="7" t="s">
+      <c r="C1413" s="5" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1414" s="6">
+      <c r="A1414" s="4">
         <v>11054615</v>
       </c>
       <c r="B1414" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1414" s="7" t="s">
+      <c r="C1414" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1415" s="6">
+      <c r="A1415" s="4">
         <v>11054565</v>
       </c>
       <c r="B1415" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1415" s="7" t="s">
+      <c r="C1415" s="5" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1416" s="6">
+      <c r="A1416" s="4">
         <v>11054596</v>
       </c>
       <c r="B1416" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1416" s="7" t="s">
+      <c r="C1416" s="5" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1417" s="6">
+      <c r="A1417" s="4">
         <v>11054601</v>
       </c>
       <c r="B1417" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1417" s="7" t="s">
+      <c r="C1417" s="5" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1418" s="6">
+      <c r="A1418" s="4">
         <v>11028226</v>
       </c>
       <c r="B1418" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1418" s="7" t="s">
+      <c r="C1418" s="5" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1419" s="6">
+      <c r="A1419" s="4">
         <v>11028232</v>
       </c>
       <c r="B1419" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1419" s="7" t="s">
+      <c r="C1419" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1420" s="6">
+      <c r="A1420" s="4">
         <v>11029825</v>
       </c>
       <c r="B1420" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1420" s="7" t="s">
+      <c r="C1420" s="5" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1421" s="6">
+      <c r="A1421" s="4">
         <v>11028248</v>
       </c>
       <c r="B1421" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1421" s="7" t="s">
+      <c r="C1421" s="5" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1422" s="6">
+      <c r="A1422" s="4">
         <v>11046286</v>
       </c>
       <c r="B1422" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C1422" s="7" t="s">
+      <c r="C1422" s="5" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1423" s="6">
+      <c r="A1423" s="4">
         <v>11045073</v>
       </c>
       <c r="B1423" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C1423" s="7" t="s">
+      <c r="C1423" s="5" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1424" s="6">
+      <c r="A1424" s="4">
         <v>11046287</v>
       </c>
       <c r="B1424" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C1424" s="7" t="s">
+      <c r="C1424" s="5" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1425" s="6">
+      <c r="A1425" s="4">
         <v>11048330</v>
       </c>
       <c r="B1425" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C1425" s="7" t="s">
+      <c r="C1425" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1426" s="6">
+      <c r="A1426" s="4">
         <v>11055301</v>
       </c>
       <c r="B1426" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1426" s="7" t="s">
+      <c r="C1426" s="5" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1427" s="6">
+      <c r="A1427" s="4">
         <v>11045067</v>
       </c>
       <c r="B1427" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C1427" s="7" t="s">
+      <c r="C1427" s="5" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1428" s="6">
+      <c r="A1428" s="4">
         <v>11045079</v>
       </c>
       <c r="B1428" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1428" s="7" t="s">
+      <c r="C1428" s="5" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1429" s="6">
+      <c r="A1429" s="4">
         <v>11048329</v>
       </c>
       <c r="B1429" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1429" s="7" t="s">
+      <c r="C1429" s="5" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1430" s="6">
+      <c r="A1430" s="4">
         <v>11045096</v>
       </c>
       <c r="B1430" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C1430" s="7" t="s">
+      <c r="C1430" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1431" s="6">
+      <c r="A1431" s="4">
         <v>11061611</v>
       </c>
       <c r="B1431" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1431" s="7" t="s">
+      <c r="C1431" s="5" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1432" s="6">
+      <c r="A1432" s="4">
         <v>11033082</v>
       </c>
       <c r="B1432" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C1432" s="7" t="s">
+      <c r="C1432" s="5" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1433" s="8">
+      <c r="A1433" s="7">
         <v>11072265</v>
       </c>
-      <c r="B1433" s="9" t="s">
+      <c r="B1433" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C1433" s="10" t="s">
+      <c r="C1433" s="6" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1434" s="11">
+      <c r="A1434" s="8">
         <v>11065728</v>
       </c>
-      <c r="B1434" s="9" t="s">
+      <c r="B1434" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C1434" s="11" t="s">
+      <c r="C1434" s="8" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1435" s="11">
+      <c r="A1435" s="8">
         <v>11072722</v>
       </c>
-      <c r="B1435" s="9" t="s">
+      <c r="B1435" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="C1435" s="11" t="s">
+      <c r="C1435" s="8" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1436" s="11">
+      <c r="A1436" s="8">
         <v>11072742</v>
       </c>
-      <c r="B1436" s="9" t="s">
+      <c r="B1436" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C1436" s="11" t="s">
+      <c r="C1436" s="8" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1437" s="11">
+      <c r="A1437" s="8">
         <v>11072495</v>
       </c>
-      <c r="B1437" s="9" t="s">
+      <c r="B1437" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C1437" s="11" t="s">
+      <c r="C1437" s="8" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1438" s="11">
+      <c r="A1438" s="8">
         <v>11072500</v>
       </c>
-      <c r="B1438" s="9" t="s">
+      <c r="B1438" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C1438" s="11" t="s">
+      <c r="C1438" s="8" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1439" s="11">
+      <c r="A1439" s="8">
         <v>11072497</v>
       </c>
-      <c r="B1439" s="9" t="s">
+      <c r="B1439" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C1439" s="11" t="s">
+      <c r="C1439" s="8" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1440" s="11">
+      <c r="A1440" s="8">
         <v>11072707</v>
       </c>
-      <c r="B1440" s="9" t="s">
+      <c r="B1440" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C1440" s="11" t="s">
+      <c r="C1440" s="8" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1441" s="11">
+      <c r="A1441" s="8">
         <v>11023638</v>
       </c>
       <c r="B1441" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="C1441" s="11" t="s">
+      <c r="C1441" s="8" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1442" s="11">
+      <c r="A1442" s="8">
         <v>11072734</v>
       </c>
-      <c r="B1442" s="9" t="s">
+      <c r="B1442" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C1442" s="11" t="s">
+      <c r="C1442" s="8" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1443" s="11">
+      <c r="A1443" s="8">
         <v>11068780</v>
       </c>
-      <c r="B1443" s="9" t="s">
+      <c r="B1443" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C1443" s="11" t="s">
+      <c r="C1443" s="8" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1444" s="11">
+      <c r="A1444" s="8">
         <v>11069032</v>
       </c>
-      <c r="B1444" s="9" t="s">
+      <c r="B1444" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C1444" s="11" t="s">
+      <c r="C1444" s="8" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1445" s="11">
+      <c r="A1445" s="8">
         <v>11066422</v>
       </c>
-      <c r="B1445" s="9" t="s">
+      <c r="B1445" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C1445" s="11" t="s">
+      <c r="C1445" s="8" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1446" s="11">
+      <c r="A1446" s="8">
         <v>11072503</v>
       </c>
-      <c r="B1446" s="9" t="s">
+      <c r="B1446" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C1446" s="11" t="s">
+      <c r="C1446" s="8" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1447" s="7">
+      <c r="A1447" s="5">
         <v>11068760</v>
       </c>
-      <c r="B1447" s="9" t="s">
+      <c r="B1447" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C1447" s="7" t="s">
+      <c r="C1447" s="5" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1448" s="7">
+      <c r="A1448" s="5">
         <v>11032294</v>
       </c>
-      <c r="B1448" s="9" t="s">
+      <c r="B1448" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C1448" s="7" t="s">
+      <c r="C1448" s="5" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1449" s="7">
+      <c r="A1449" s="5">
         <v>11066388</v>
       </c>
-      <c r="B1449" s="9" t="s">
+      <c r="B1449" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C1449" s="7" t="s">
+      <c r="C1449" s="5" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1450" s="7">
+      <c r="A1450" s="5">
         <v>11072527</v>
       </c>
-      <c r="B1450" s="9" t="s">
+      <c r="B1450" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C1450" s="7" t="s">
+      <c r="C1450" s="5" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1451" s="7">
+      <c r="A1451" s="5">
         <v>11071611</v>
       </c>
-      <c r="B1451" s="9" t="s">
+      <c r="B1451" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C1451" s="7" t="s">
+      <c r="C1451" s="5" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1452" s="7">
+      <c r="A1452" s="5">
         <v>11063116</v>
       </c>
-      <c r="B1452" s="9" t="s">
+      <c r="B1452" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C1452" s="7" t="s">
+      <c r="C1452" s="5" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1453" s="11">
+      <c r="A1453" s="8">
         <v>11072699</v>
       </c>
-      <c r="B1453" s="7" t="s">
+      <c r="B1453" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1453" s="11" t="s">
+      <c r="C1453" s="8" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1454" s="11">
+      <c r="A1454" s="8">
         <v>11072698</v>
       </c>
-      <c r="B1454" s="7" t="s">
+      <c r="B1454" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1454" s="11" t="s">
+      <c r="C1454" s="8" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1455" s="11">
+      <c r="A1455" s="8">
         <v>11069702</v>
       </c>
-      <c r="B1455" s="7" t="s">
+      <c r="B1455" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="C1455" s="11" t="s">
+      <c r="C1455" s="8" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1456" s="11">
+      <c r="A1456" s="8">
         <v>11068906</v>
       </c>
-      <c r="B1456" s="7" t="s">
+      <c r="B1456" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1456" s="11" t="s">
+      <c r="C1456" s="8" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1457" s="11">
+      <c r="A1457" s="8">
         <v>11072483</v>
       </c>
-      <c r="B1457" s="7" t="s">
+      <c r="B1457" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C1457" s="11" t="s">
+      <c r="C1457" s="8" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1458" s="11">
+      <c r="A1458" s="8">
         <v>11072522</v>
       </c>
-      <c r="B1458" s="7" t="s">
+      <c r="B1458" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="C1458" s="11" t="s">
+      <c r="C1458" s="8" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1459" s="11">
+      <c r="A1459" s="8">
         <v>11072505</v>
       </c>
-      <c r="B1459" s="7" t="s">
+      <c r="B1459" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C1459" s="11" t="s">
+      <c r="C1459" s="8" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1460" s="11">
+      <c r="A1460" s="8">
         <v>11072506</v>
       </c>
-      <c r="B1460" s="7" t="s">
+      <c r="B1460" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="C1460" s="11" t="s">
+      <c r="C1460" s="8" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1461" s="11">
+      <c r="A1461" s="8">
         <v>11072704</v>
       </c>
-      <c r="B1461" s="7" t="s">
+      <c r="B1461" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C1461" s="11" t="s">
+      <c r="C1461" s="8" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1462" s="11">
+      <c r="A1462" s="8">
         <v>11062778</v>
       </c>
-      <c r="B1462" s="7" t="s">
+      <c r="B1462" s="5" t="s">
         <v>1506</v>
       </c>
-      <c r="C1462" s="11" t="s">
+      <c r="C1462" s="8" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1463" s="11">
+      <c r="A1463" s="8">
         <v>11075733</v>
       </c>
-      <c r="B1463" s="7" t="s">
+      <c r="B1463" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C1463" s="11" t="s">
+      <c r="C1463" s="8" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1464" s="11">
+      <c r="A1464" s="8">
         <v>11056393</v>
       </c>
-      <c r="B1464" s="7" t="s">
+      <c r="B1464" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C1464" s="11" t="s">
+      <c r="C1464" s="8" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1465" s="11">
+      <c r="A1465" s="8">
         <v>11062858</v>
       </c>
-      <c r="B1465" s="7" t="s">
+      <c r="B1465" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C1465" s="11" t="s">
+      <c r="C1465" s="8" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1466"/>
+      <c r="A1466" s="8">
+        <v>11072717</v>
+      </c>
+      <c r="B1466" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1466" s="8" t="s">
+        <v>1508</v>
+      </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1467"/>
+      <c r="A1467" s="8">
+        <v>11066611</v>
+      </c>
+      <c r="B1467" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1467" s="8" t="s">
+        <v>1509</v>
+      </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1468"/>
+      <c r="A1468" s="8">
+        <v>11066612</v>
+      </c>
+      <c r="B1468" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1468" s="8" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1469"/>
+      <c r="A1469" s="8">
+        <v>11066613</v>
+      </c>
+      <c r="B1469" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1469" s="8" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1470"/>
+      <c r="A1470" s="8">
+        <v>11068768</v>
+      </c>
+      <c r="B1470" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1470" s="8" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1471"/>
+      <c r="A1471" s="8">
+        <v>11072494</v>
+      </c>
+      <c r="B1471" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1471" s="8" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1472"/>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1473"/>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1474"/>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1475"/>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476"/>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479"/>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1480"/>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1481"/>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1482"/>
+      <c r="A1472" s="8">
+        <v>11072540</v>
+      </c>
+      <c r="B1472" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1472" s="8" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1473" s="8">
+        <v>11072530</v>
+      </c>
+      <c r="B1473" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1473" s="8" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1474" s="8">
+        <v>11060760</v>
+      </c>
+      <c r="B1474" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1474" s="8" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1475" s="9">
+        <v>11077844</v>
+      </c>
+      <c r="B1475" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1475" s="10" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1476" s="9">
+        <v>11072701</v>
+      </c>
+      <c r="B1476" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1476" s="10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1477" s="9">
+        <v>11072725</v>
+      </c>
+      <c r="B1477" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1477" s="10" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1478" s="9">
+        <v>11063352</v>
+      </c>
+      <c r="B1478" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1478" s="10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1479" s="9">
+        <v>11072515</v>
+      </c>
+      <c r="B1479" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1479" s="10" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1480" s="9">
+        <v>11072525</v>
+      </c>
+      <c r="B1480" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1480" s="10" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1481" s="9">
+        <v>11072528</v>
+      </c>
+      <c r="B1481" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1481" s="10" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1482" s="9">
+        <v>11072529</v>
+      </c>
+      <c r="B1482" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1482" s="10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1483" s="9">
+        <v>11059108</v>
+      </c>
+      <c r="B1483" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1483" s="10" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1484" s="9">
+        <v>11077077</v>
+      </c>
+      <c r="B1484" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1484" s="10" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1485" s="9">
+        <v>11077076</v>
+      </c>
+      <c r="B1485" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1485" s="10" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1486" s="9">
+        <v>11062769</v>
+      </c>
+      <c r="B1486" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1486" s="10" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1487" s="9">
+        <v>11069863</v>
+      </c>
+      <c r="B1487" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1487" s="10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1488" s="9">
+        <v>11059097</v>
+      </c>
+      <c r="B1488" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1488" s="10" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1489"/>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1490"/>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1491"/>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1492"/>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1493"/>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1494"/>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1495"/>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1496"/>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1497"/>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1498"/>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1499"/>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1500"/>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1501"/>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1502"/>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1503"/>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1504"/>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1505"/>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1506"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1465"/>
+  <autoFilter ref="A1:C1488"/>
   <sortState ref="A2:C1071">
     <sortCondition ref="C2"/>
   </sortState>

--- a/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
+++ b/FFR Data/Added Data/FFR Data Actual Part with Part code.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1474</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1572">
   <si>
     <t>Actual Part</t>
   </si>
@@ -4624,6 +4625,120 @@
   </si>
   <si>
     <t>Valve</t>
+  </si>
+  <si>
+    <t>Fan Motor FW25K IR183GDR/SLK ODU</t>
+  </si>
+  <si>
+    <t>Blower SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Swing Louver SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Blower Motor BLDC SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Swing motor SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Main PCB SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>COMPRESSOR (SHV33ZC1-S) S24TRDN2 ODU</t>
+  </si>
+  <si>
+    <t>4way Swing Motor MG Series IDU</t>
+  </si>
+  <si>
+    <t>Blower SR123SG/SS IDU</t>
+  </si>
+  <si>
+    <t>CONTROL PCB (5DF9) 18K3S4S/19K4S/24K3S IDU</t>
+  </si>
+  <si>
+    <t>Display pcb MG/MS/MB Series IDU</t>
+  </si>
+  <si>
+    <t>Blower Motor BLDC SR123SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Main PCB SR123SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Cam Link MG Series IDU</t>
+  </si>
+  <si>
+    <t>Display PCB SG/SS series IDU</t>
+  </si>
+  <si>
+    <t>FAN BLADE S09/12/18TRD4-G4-N4 ODU</t>
+  </si>
+  <si>
+    <t>CONTROL PCB (5EA1) 12K3S4S5S/18K5S IDU</t>
+  </si>
+  <si>
+    <t>TB Cover SR183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Evaporator Coil SR123SG/SS IDU</t>
+  </si>
+  <si>
+    <t>Swing motor SR123SG/SS IDU</t>
+  </si>
+  <si>
+    <t>BASE IR123/183GRD/IVR ODU</t>
+  </si>
+  <si>
+    <t>REACTOR INV12IRS/ONX ODU</t>
+  </si>
+  <si>
+    <t>SWING LOUVER HORZ IR183GNO IDU</t>
+  </si>
+  <si>
+    <t>Top Cover IR184/5/194TG/TS/MG/S/B ODU</t>
+  </si>
+  <si>
+    <t>CONTROL PCB (5270) IR194MB/MG/MS ODU</t>
+  </si>
+  <si>
+    <t>Evaporator Coil SR183SG/SS&amp;SR 193 SS/SG IDU</t>
+  </si>
+  <si>
+    <t>Display Cover Assy SR123/183SG/SS IDU</t>
+  </si>
+  <si>
+    <t>DisplaY PCB SR123/183AG IDU</t>
+  </si>
+  <si>
+    <t>Remote TG/TS/MG/MS/MB Series IDU</t>
+  </si>
+  <si>
+    <t>CONDENSOR ASSY SA093TRD ODU</t>
+  </si>
+  <si>
+    <t>CONTROL PCB ODU IR125URA</t>
+  </si>
+  <si>
+    <t>Part code</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Display Cover</t>
+  </si>
+  <si>
+    <t>ODU Top Cover</t>
+  </si>
+  <si>
+    <t>ODU Base</t>
+  </si>
+  <si>
+    <t>IDU Cam Link</t>
+  </si>
+  <si>
+    <t>Top Cover IDU</t>
   </si>
 </sst>
 </file>
@@ -4661,7 +4776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4684,11 +4799,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4718,6 +4848,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5024,16 +5161,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1506"/>
+  <dimension ref="A1:C1519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1475" workbookViewId="0">
-      <selection activeCell="C1477" sqref="C1477"/>
+    <sheetView tabSelected="1" topLeftCell="A1503" workbookViewId="0">
+      <selection activeCell="B1519" sqref="B1519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21405,66 +21542,664 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1489"/>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1490"/>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1491"/>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1492"/>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1493"/>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1494"/>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1495"/>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1496"/>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1497"/>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1498"/>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1499"/>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1500"/>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1501"/>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1502"/>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1503"/>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1504"/>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1505"/>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1506"/>
+    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1489" s="12">
+        <v>11066407</v>
+      </c>
+      <c r="B1489" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1489" s="12" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1490" s="12">
+        <v>11077052</v>
+      </c>
+      <c r="B1490" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1490" s="12" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1491" s="12">
+        <v>11077049</v>
+      </c>
+      <c r="B1491" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1491" s="12" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1492" s="12">
+        <v>11077054</v>
+      </c>
+      <c r="B1492" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1492" s="12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1493" s="12">
+        <v>11077064</v>
+      </c>
+      <c r="B1493" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1493" s="12" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1494" s="12">
+        <v>11077056</v>
+      </c>
+      <c r="B1494" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1494" s="12" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1495" s="12">
+        <v>11044381</v>
+      </c>
+      <c r="B1495" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1495" s="12" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1496" s="12">
+        <v>11077814</v>
+      </c>
+      <c r="B1496" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1496" s="12" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1497" s="12">
+        <v>11077028</v>
+      </c>
+      <c r="B1497" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1497" s="12" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1498" s="12">
+        <v>11077847</v>
+      </c>
+      <c r="B1498" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1498" s="12" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1499" s="12">
+        <v>11077839</v>
+      </c>
+      <c r="B1499" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1499" s="12" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1500" s="12">
+        <v>11077030</v>
+      </c>
+      <c r="B1500" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1500" s="12" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1501" s="12">
+        <v>11077032</v>
+      </c>
+      <c r="B1501" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1501" s="12" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1502" s="12">
+        <v>11077813</v>
+      </c>
+      <c r="B1502" s="12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1502" s="12" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1503" s="12">
+        <v>11077042</v>
+      </c>
+      <c r="B1503" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1503" s="12" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1504" s="12">
+        <v>11048086</v>
+      </c>
+      <c r="B1504" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1504" s="12" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1505" s="12">
+        <v>11077846</v>
+      </c>
+      <c r="B1505" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1505" s="12" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1506" s="12">
+        <v>11077057</v>
+      </c>
+      <c r="B1506" s="12" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C1506" s="12" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1507" s="12">
+        <v>11077039</v>
+      </c>
+      <c r="B1507" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1507" s="12" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1508" s="12">
+        <v>11077044</v>
+      </c>
+      <c r="B1508" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1508" s="12" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1509" s="12">
+        <v>11072513</v>
+      </c>
+      <c r="B1509" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C1509" s="12" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1510" s="12">
+        <v>11060862</v>
+      </c>
+      <c r="B1510" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1510" s="12" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1511" s="12">
+        <v>11065746</v>
+      </c>
+      <c r="B1511" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1511" s="12" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1512" s="12">
+        <v>11077278</v>
+      </c>
+      <c r="B1512" s="12" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1512" s="12" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1513" s="12">
+        <v>11077854</v>
+      </c>
+      <c r="B1513" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1513" s="12" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1514" s="12">
+        <v>11077061</v>
+      </c>
+      <c r="B1514" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1514" s="12" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1515" s="12">
+        <v>11077041</v>
+      </c>
+      <c r="B1515" s="12" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1515" s="12" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1516" s="12">
+        <v>11076636</v>
+      </c>
+      <c r="B1516" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1516" s="12" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1517" s="12">
+        <v>11077263</v>
+      </c>
+      <c r="B1517" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1517" s="12" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1518" s="12">
+        <v>11059270</v>
+      </c>
+      <c r="B1518" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1518" s="12" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1519" s="12">
+        <v>11068804</v>
+      </c>
+      <c r="B1519" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1519" s="12" t="s">
+        <v>1564</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1488"/>
   <sortState ref="A2:C1071">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>11066407</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>11077052</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>11077049</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>11077054</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>11077064</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>11077056</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>11044381</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>11077814</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11077028</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>11077847</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11077839</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11077030</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11077032</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11077813</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>11077042</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>11048086</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>11077846</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>11077057</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>11077039</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>11077044</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11072513</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>11060862</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>11065746</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>11077278</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>11077854</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>11077061</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>11077041</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>11076636</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>11077263</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>11059270</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>11068804</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>